--- a/Ver2/Notion data/Lũy kế ngày HỆ THỐNG.xlsx
+++ b/Ver2/Notion data/Lũy kế ngày HỆ THỐNG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY155"/>
+  <dimension ref="A1:AY156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -698,17 +698,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>78e446e7-0c40-4f62-8382-e2e88f1fe7ae</t>
+          <t>c795caea-ab05-4f28-b5c5-bac11e7e90e1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-07-23T09:36:00.000Z</t>
+          <t>2024-07-24T15:16:00.000Z</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -721,7 +721,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.notion.so/1-78e446e70c404f628382e2e88f1fe7ae</t>
+          <t>https://www.notion.so/1-c795caeaab054f28b5c5bac11e7e90e1</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="W2" t="n">
-        <v>58650000</v>
+        <v>52650000</v>
       </c>
       <c r="X2" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="AA2" t="n">
-        <v>60200000</v>
+        <v>54200000</v>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="AD2" t="n">
-        <v>56200000</v>
+        <v>50200000</v>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
         </is>
       </c>
       <c r="AV2" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
@@ -915,17 +915,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>d226a5c5-7d21-4ef0-8759-f1b77a4028b5</t>
+          <t>1d86d70c-67e9-4bb0-a433-497681944c65</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-07-23T09:36:00.000Z</t>
+          <t>2024-07-24T15:16:00.000Z</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -938,7 +938,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.notion.so/2-d226a5c57d214ef08759f1b77a4028b5</t>
+          <t>https://www.notion.so/2-1d86d70c67e94bb0a433497681944c65</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -1132,17 +1132,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0ac4c652-c184-4eb4-8139-23e295789355</t>
+          <t>4a519a1f-f1fe-41de-918a-762d61f8bbde</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-07-21T10:09:00.000Z</t>
+          <t>2024-07-24T15:16:00.000Z</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.notion.so/3-0ac4c652c1844eb4813923e295789355</t>
+          <t>https://www.notion.so/3-4a519a1ff1fe41de918a762d61f8bbde</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -1349,17 +1349,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>43f402e5-7c3f-4f0e-8316-7dbe5f2c35d7</t>
+          <t>4049d3a4-f568-404a-8ea5-0c83356381b6</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-07-20T09:29:00.000Z</t>
+          <t>2024-07-24T15:16:00.000Z</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1372,7 +1372,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.notion.so/4-43f402e57c3f4f0e83167dbe5f2c35d7</t>
+          <t>https://www.notion.so/4-4049d3a4f568404a8ea50c83356381b6</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -1435,7 +1435,7 @@
         </is>
       </c>
       <c r="W5" t="n">
-        <v>10410000</v>
+        <v>5410000</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         </is>
       </c>
       <c r="AA5" t="n">
-        <v>10700000</v>
+        <v>5700000</v>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         </is>
       </c>
       <c r="AD5" t="n">
-        <v>10700000</v>
+        <v>5700000</v>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="AV5" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="AW5" t="inlineStr">
         <is>
@@ -1566,17 +1566,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>746193bc-0c4f-4cab-a6ac-be4a2cd77797</t>
+          <t>e7b8a15b-e85f-4ab1-8897-c7b3d9d5dba4</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2024-07-19T10:44:00.000Z</t>
+          <t>2024-07-24T12:02:00.000Z</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1589,7 +1589,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.notion.so/5-746193bc0c4f4caba6acbe4a2cd77797</t>
+          <t>https://www.notion.so/5-e7b8a15be85f4ab18897c7b3d9d5dba4</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -1783,17 +1783,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>191e50e8-221e-4452-b860-b03ec9a74942</t>
+          <t>78e446e7-0c40-4f62-8382-e2e88f1fe7ae</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2024-07-18T08:32:00.000Z</t>
+          <t>2024-07-23T09:36:00.000Z</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.notion.so/6-191e50e8221e4452b860b03ec9a74942</t>
+          <t>https://www.notion.so/6-78e446e70c404f628382e2e88f1fe7ae</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -2000,17 +2000,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2b8186d0-8c51-41bf-8b1e-6fa355ee02a3</t>
+          <t>d226a5c5-7d21-4ef0-8759-f1b77a4028b5</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024-07-17T12:19:00.000Z</t>
+          <t>2024-07-23T09:36:00.000Z</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -2023,7 +2023,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.notion.so/7-2b8186d08c5141bf8b1e6fa355ee02a3</t>
+          <t>https://www.notion.so/7-d226a5c57d214ef08759f1b77a4028b5</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -2086,7 +2086,7 @@
         </is>
       </c>
       <c r="W8" t="n">
-        <v>15530000</v>
+        <v>2530000</v>
       </c>
       <c r="X8" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         </is>
       </c>
       <c r="AA8" t="n">
-        <v>18000000</v>
+        <v>5000000</v>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         </is>
       </c>
       <c r="AD8" t="n">
-        <v>18000000</v>
+        <v>5000000</v>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         </is>
       </c>
       <c r="AV8" t="n">
-        <v>0</v>
+        <v>13000000</v>
       </c>
       <c r="AW8" t="inlineStr">
         <is>
@@ -2217,17 +2217,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5e9472c1-3680-482b-9288-628d020b05a7</t>
+          <t>0ac4c652-c184-4eb4-8139-23e295789355</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2024-07-17T12:19:00.000Z</t>
+          <t>2024-07-21T10:09:00.000Z</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.notion.so/8-5e9472c13680482b9288628d020b05a7</t>
+          <t>https://www.notion.so/8-0ac4c652c1844eb4813923e295789355</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -2303,7 +2303,7 @@
         </is>
       </c>
       <c r="W9" t="n">
-        <v>33480000</v>
+        <v>28480000</v>
       </c>
       <c r="X9" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="AA9" t="n">
-        <v>35400000</v>
+        <v>30400000</v>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         </is>
       </c>
       <c r="AD9" t="n">
-        <v>35400000</v>
+        <v>30400000</v>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         </is>
       </c>
       <c r="AV9" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="AW9" t="inlineStr">
         <is>
@@ -2434,17 +2434,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>948f2b18-af24-4914-b9f2-dd7857c76fdf</t>
+          <t>43f402e5-7c3f-4f0e-8316-7dbe5f2c35d7</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024-07-15T04:39:00.000Z</t>
+          <t>2024-07-20T09:29:00.000Z</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.notion.so/9-948f2b18af244914b9f2dd7857c76fdf</t>
+          <t>https://www.notion.so/9-43f402e57c3f4f0e83167dbe5f2c35d7</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -2520,7 +2520,7 @@
         </is>
       </c>
       <c r="W10" t="n">
-        <v>12143000</v>
+        <v>11143000</v>
       </c>
       <c r="X10" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         </is>
       </c>
       <c r="AA10" t="n">
-        <v>22000000</v>
+        <v>21000000</v>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         </is>
       </c>
       <c r="AD10" t="n">
-        <v>19000000</v>
+        <v>18000000</v>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         </is>
       </c>
       <c r="AV10" t="n">
-        <v>2000000</v>
+        <v>3000000</v>
       </c>
       <c r="AW10" t="inlineStr">
         <is>
@@ -2651,17 +2651,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2c2d668f-b335-4737-9126-8060ab574501</t>
+          <t>746193bc-0c4f-4cab-a6ac-be4a2cd77797</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2024-07-14T05:02:00.000Z</t>
+          <t>2024-07-19T10:44:00.000Z</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.notion.so/10-2c2d668fb335473791268060ab574501</t>
+          <t>https://www.notion.so/10-746193bc0c4f4caba6acbe4a2cd77797</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -2737,7 +2737,7 @@
         </is>
       </c>
       <c r="W11" t="n">
-        <v>91433000</v>
+        <v>89433000</v>
       </c>
       <c r="X11" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="AA11" t="n">
-        <v>101995000</v>
+        <v>99995000</v>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         </is>
       </c>
       <c r="AD11" t="n">
-        <v>101995000</v>
+        <v>99995000</v>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="AV11" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="AW11" t="inlineStr">
         <is>
@@ -2868,17 +2868,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1cecad20-ee2a-465e-88b3-b5637f1828f8</t>
+          <t>191e50e8-221e-4452-b860-b03ec9a74942</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2024-07-13T09:29:00.000Z</t>
+          <t>2024-07-18T08:32:00.000Z</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.notion.so/11-1cecad20ee2a465e88b3b5637f1828f8</t>
+          <t>https://www.notion.so/11-191e50e8221e4452b860b03ec9a74942</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -2954,7 +2954,7 @@
         </is>
       </c>
       <c r="W12" t="n">
-        <v>7730000</v>
+        <v>4730000</v>
       </c>
       <c r="X12" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="AA12" t="n">
-        <v>10000000</v>
+        <v>7000000</v>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         </is>
       </c>
       <c r="AD12" t="n">
-        <v>10000000</v>
+        <v>7000000</v>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         </is>
       </c>
       <c r="AV12" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
@@ -3085,17 +3085,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ed5b54e6-6fb5-4fd9-8e8d-27b728dcc7fa</t>
+          <t>2b8186d0-8c51-41bf-8b1e-6fa355ee02a3</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2024-07-12T09:54:00.000Z</t>
+          <t>2024-07-17T12:19:00.000Z</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -3108,7 +3108,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.notion.so/12-ed5b54e66fb54fd98e8d27b728dcc7fa</t>
+          <t>https://www.notion.so/12-2b8186d08c5141bf8b1e6fa355ee02a3</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -3302,17 +3302,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>d1eabcb6-fdcc-486a-a0bb-1e532fd55a53</t>
+          <t>5e9472c1-3680-482b-9288-628d020b05a7</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2024-07-11T06:13:00.000Z</t>
+          <t>2024-07-17T12:19:00.000Z</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -3325,7 +3325,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.notion.so/13-d1eabcb6fdcc486aa0bb1e532fd55a53</t>
+          <t>https://www.notion.so/13-5e9472c13680482b9288628d020b05a7</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         </is>
       </c>
       <c r="W14" t="n">
-        <v>11180000</v>
+        <v>6180000</v>
       </c>
       <c r="X14" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         </is>
       </c>
       <c r="AA14" t="n">
-        <v>11500000</v>
+        <v>6500000</v>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         </is>
       </c>
       <c r="AD14" t="n">
-        <v>11500000</v>
+        <v>6500000</v>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
@@ -3493,7 +3493,7 @@
         </is>
       </c>
       <c r="AV14" t="n">
-        <v>1000000</v>
+        <v>6000000</v>
       </c>
       <c r="AW14" t="inlineStr">
         <is>
@@ -3519,17 +3519,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>b0fdfaa9-e07e-4ae4-a43d-89be46ad8a54</t>
+          <t>948f2b18-af24-4914-b9f2-dd7857c76fdf</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2024-07-10T03:20:00.000Z</t>
+          <t>2024-07-15T04:39:00.000Z</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -3542,7 +3542,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.notion.so/14-b0fdfaa9e07e4ae4a43d89be46ad8a54</t>
+          <t>https://www.notion.so/14-948f2b18af244914b9f2dd7857c76fdf</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -3605,7 +3605,7 @@
         </is>
       </c>
       <c r="W15" t="n">
-        <v>32570000</v>
+        <v>27570000</v>
       </c>
       <c r="X15" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         </is>
       </c>
       <c r="AA15" t="n">
-        <v>36000000</v>
+        <v>31000000</v>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         </is>
       </c>
       <c r="AD15" t="n">
-        <v>31000000</v>
+        <v>26000000</v>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="AV15" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="AW15" t="inlineStr">
         <is>
@@ -3736,17 +3736,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>99277945-c84f-481c-a0ec-406ac6dbf631</t>
+          <t>2c2d668f-b335-4737-9126-8060ab574501</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2024-07-09T08:24:00.000Z</t>
+          <t>2024-07-14T05:02:00.000Z</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -3759,7 +3759,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.notion.so/15-99277945c84f481ca0ec406ac6dbf631</t>
+          <t>https://www.notion.so/15-2c2d668fb335473791268060ab574501</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -3953,17 +3953,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>91885e5c-9108-4ddc-a1b2-063b800ef3e5</t>
+          <t>1cecad20-ee2a-465e-88b3-b5637f1828f8</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2024-07-08T04:13:00.000Z</t>
+          <t>2024-07-13T09:29:00.000Z</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -3976,7 +3976,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.notion.so/16-91885e5c91084ddca1b2063b800ef3e5</t>
+          <t>https://www.notion.so/16-1cecad20ee2a465e88b3b5637f1828f8</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -4039,7 +4039,7 @@
         </is>
       </c>
       <c r="W17" t="n">
-        <v>62941000</v>
+        <v>55941000</v>
       </c>
       <c r="X17" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
         </is>
       </c>
       <c r="AA17" t="n">
-        <v>74000000</v>
+        <v>67000000</v>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         </is>
       </c>
       <c r="AD17" t="n">
-        <v>60000000</v>
+        <v>53000000</v>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         </is>
       </c>
       <c r="AV17" t="n">
-        <v>0</v>
+        <v>7000000</v>
       </c>
       <c r="AW17" t="inlineStr">
         <is>
@@ -4170,17 +4170,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>69fdd0e2-967f-4956-a777-d55a68bd4f33</t>
+          <t>ed5b54e6-6fb5-4fd9-8e8d-27b728dcc7fa</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2024-07-07T12:13:00.000Z</t>
+          <t>2024-07-12T09:54:00.000Z</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -4193,7 +4193,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.notion.so/17-69fdd0e2967f4956a777d55a68bd4f33</t>
+          <t>https://www.notion.so/17-ed5b54e66fb54fd98e8d27b728dcc7fa</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -4387,17 +4387,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>f693a732-c8b8-4a02-9405-d1d145b05826</t>
+          <t>d1eabcb6-fdcc-486a-a0bb-1e532fd55a53</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2024-07-06T15:49:00.000Z</t>
+          <t>2024-07-11T06:13:00.000Z</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -4410,7 +4410,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.notion.so/18-f693a732c8b84a029405d1d145b05826</t>
+          <t>https://www.notion.so/18-d1eabcb6fdcc486aa0bb1e532fd55a53</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -4473,7 +4473,7 @@
         </is>
       </c>
       <c r="W19" t="n">
-        <v>1560000</v>
+        <v>560000</v>
       </c>
       <c r="X19" t="inlineStr">
         <is>
@@ -4491,7 +4491,7 @@
         </is>
       </c>
       <c r="AA19" t="n">
-        <v>1700000</v>
+        <v>700000</v>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         </is>
       </c>
       <c r="AD19" t="n">
-        <v>1700000</v>
+        <v>700000</v>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         </is>
       </c>
       <c r="AV19" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="AW19" t="inlineStr">
         <is>
@@ -4604,17 +4604,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0ac9b051-5cc9-406d-93cd-dfd30b94f1b9</t>
+          <t>b0fdfaa9-e07e-4ae4-a43d-89be46ad8a54</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2024-07-06T08:53:00.000Z</t>
+          <t>2024-07-10T03:20:00.000Z</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -4627,7 +4627,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.notion.so/19-0ac9b0515cc9406d93cddfd30b94f1b9</t>
+          <t>https://www.notion.so/19-b0fdfaa9e07e4ae4a43d89be46ad8a54</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -4690,7 +4690,7 @@
         </is>
       </c>
       <c r="W20" t="n">
-        <v>22520000</v>
+        <v>18020000</v>
       </c>
       <c r="X20" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         </is>
       </c>
       <c r="AA20" t="n">
-        <v>34500000</v>
+        <v>30000000</v>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="AD20" t="n">
-        <v>34500000</v>
+        <v>30000000</v>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         </is>
       </c>
       <c r="AV20" t="n">
-        <v>0</v>
+        <v>4500000</v>
       </c>
       <c r="AW20" t="inlineStr">
         <is>
@@ -4821,17 +4821,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>f731208e-1075-48d0-abc5-8db88eae20bb</t>
+          <t>99277945-c84f-481c-a0ec-406ac6dbf631</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2024-07-04T03:59:00.000Z</t>
+          <t>2024-07-09T08:24:00.000Z</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -4844,7 +4844,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.notion.so/20-f731208e107548d0abc58db88eae20bb</t>
+          <t>https://www.notion.so/20-99277945c84f481ca0ec406ac6dbf631</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -4907,7 +4907,7 @@
         </is>
       </c>
       <c r="W21" t="n">
-        <v>5000000</v>
+        <v>3500000</v>
       </c>
       <c r="X21" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         </is>
       </c>
       <c r="AA21" t="n">
-        <v>5000000</v>
+        <v>3500000</v>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="AD21" t="n">
-        <v>1500000</v>
+        <v>0</v>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="AV21" t="n">
-        <v>0</v>
+        <v>1500000</v>
       </c>
       <c r="AW21" t="inlineStr">
         <is>
@@ -5038,17 +5038,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>25114a41-1915-4ca5-b664-936891b3097b</t>
+          <t>91885e5c-9108-4ddc-a1b2-063b800ef3e5</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2024-07-02T21:33:00.000Z</t>
+          <t>2024-07-08T04:13:00.000Z</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -5061,7 +5061,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://www.notion.so/21-25114a4119154ca5b664936891b3097b</t>
+          <t>https://www.notion.so/21-91885e5c91084ddca1b2063b800ef3e5</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -5255,17 +5255,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>fab28d7f-b767-4c78-bded-853d1a301515</t>
+          <t>69fdd0e2-967f-4956-a777-d55a68bd4f33</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2024-07-02T03:00:00.000Z</t>
+          <t>2024-07-07T12:13:00.000Z</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -5278,7 +5278,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.notion.so/22-fab28d7fb7674c78bded853d1a301515</t>
+          <t>https://www.notion.so/22-69fdd0e2967f4956a777d55a68bd4f33</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -5472,17 +5472,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>706d4f2c-a2ec-4c18-a2c5-5935e3f1599c</t>
+          <t>f693a732-c8b8-4a02-9405-d1d145b05826</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2024-07-01T04:20:00.000Z</t>
+          <t>2024-07-06T15:49:00.000Z</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -5495,7 +5495,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://www.notion.so/23-706d4f2ca2ec4c18a2c55935e3f1599c</t>
+          <t>https://www.notion.so/23-f693a732c8b84a029405d1d145b05826</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -5689,17 +5689,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>daa8de3a-ff76-447f-8245-aba8917006f2</t>
+          <t>0ac9b051-5cc9-406d-93cd-dfd30b94f1b9</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2024-06-30T09:10:00.000Z</t>
+          <t>2024-07-06T08:53:00.000Z</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -5712,7 +5712,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.notion.so/24-daa8de3aff76447f8245aba8917006f2</t>
+          <t>https://www.notion.so/24-0ac9b0515cc9406d93cddfd30b94f1b9</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -5775,7 +5775,7 @@
         </is>
       </c>
       <c r="W25" t="n">
-        <v>35076000</v>
+        <v>32576000</v>
       </c>
       <c r="X25" t="inlineStr">
         <is>
@@ -5793,7 +5793,7 @@
         </is>
       </c>
       <c r="AA25" t="n">
-        <v>37400000</v>
+        <v>34900000</v>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         </is>
       </c>
       <c r="AD25" t="n">
-        <v>37400000</v>
+        <v>34900000</v>
       </c>
       <c r="AE25" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         </is>
       </c>
       <c r="AV25" t="n">
-        <v>14500000</v>
+        <v>17000000</v>
       </c>
       <c r="AW25" t="inlineStr">
         <is>
@@ -5906,17 +5906,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>d77a665d-eebe-444c-b4cf-26b67b4604df</t>
+          <t>f731208e-1075-48d0-abc5-8db88eae20bb</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2024-06-29T09:35:00.000Z</t>
+          <t>2024-07-04T03:59:00.000Z</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://www.notion.so/25-d77a665deebe444cb4cf26b67b4604df</t>
+          <t>https://www.notion.so/25-f731208e107548d0abc58db88eae20bb</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -6123,17 +6123,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>551b8192-7e28-4d6d-b116-e2e40a5283c3</t>
+          <t>25114a41-1915-4ca5-b664-936891b3097b</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2024-06-28T14:00:00.000Z</t>
+          <t>2024-07-02T21:33:00.000Z</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -6146,7 +6146,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://www.notion.so/26-551b81927e284d6db116e2e40a5283c3</t>
+          <t>https://www.notion.so/26-25114a4119154ca5b664936891b3097b</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -6340,17 +6340,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>5b3dd329-4293-42b5-80e0-1330f7e5d77b</t>
+          <t>fab28d7f-b767-4c78-bded-853d1a301515</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2024-06-27T05:19:00.000Z</t>
+          <t>2024-07-02T03:00:00.000Z</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -6363,7 +6363,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://www.notion.so/27-5b3dd329429342b580e01330f7e5d77b</t>
+          <t>https://www.notion.so/27-fab28d7fb7674c78bded853d1a301515</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -6426,7 +6426,7 @@
         </is>
       </c>
       <c r="W28" t="n">
-        <v>44530000</v>
+        <v>43530000</v>
       </c>
       <c r="X28" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         </is>
       </c>
       <c r="AA28" t="n">
-        <v>64400000</v>
+        <v>63400000</v>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         </is>
       </c>
       <c r="AD28" t="n">
-        <v>63400000</v>
+        <v>62400000</v>
       </c>
       <c r="AE28" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         </is>
       </c>
       <c r="AV28" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="AW28" t="inlineStr">
         <is>
@@ -6557,17 +6557,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>420881fe-5a64-41f5-83c7-4c39413c8d8d</t>
+          <t>706d4f2c-a2ec-4c18-a2c5-5935e3f1599c</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2024-06-26T11:55:00.000Z</t>
+          <t>2024-07-01T04:20:00.000Z</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -6580,7 +6580,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://www.notion.so/28-420881fe5a6441f583c74c39413c8d8d</t>
+          <t>https://www.notion.so/28-706d4f2ca2ec4c18a2c55935e3f1599c</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -6774,17 +6774,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>61c88664-13a8-48a3-b0c6-0c943ec81d24</t>
+          <t>daa8de3a-ff76-447f-8245-aba8917006f2</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2024-06-25T15:21:00.000Z</t>
+          <t>2024-06-30T09:10:00.000Z</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -6797,7 +6797,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://www.notion.so/29-61c8866413a848a3b0c60c943ec81d24</t>
+          <t>https://www.notion.so/29-daa8de3aff76447f8245aba8917006f2</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -6860,7 +6860,7 @@
         </is>
       </c>
       <c r="W30" t="n">
-        <v>28220000</v>
+        <v>26220000</v>
       </c>
       <c r="X30" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         </is>
       </c>
       <c r="AA30" t="n">
-        <v>31000000</v>
+        <v>29000000</v>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         </is>
       </c>
       <c r="AD30" t="n">
-        <v>9000000</v>
+        <v>7000000</v>
       </c>
       <c r="AE30" t="inlineStr">
         <is>
@@ -6965,7 +6965,7 @@
         </is>
       </c>
       <c r="AV30" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="AW30" t="inlineStr">
         <is>
@@ -6991,17 +6991,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3ffcb89f-55d1-477e-a58a-a80a3a054b47</t>
+          <t>d77a665d-eebe-444c-b4cf-26b67b4604df</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2024-06-25T15:21:00.000Z</t>
+          <t>2024-06-29T09:35:00.000Z</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -7014,7 +7014,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://www.notion.so/30-3ffcb89f55d1477ea58aa80a3a054b47</t>
+          <t>https://www.notion.so/30-d77a665deebe444cb4cf26b67b4604df</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -7077,7 +7077,7 @@
         </is>
       </c>
       <c r="W31" t="n">
-        <v>3630000</v>
+        <v>630000</v>
       </c>
       <c r="X31" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         </is>
       </c>
       <c r="AA31" t="n">
-        <v>11700000</v>
+        <v>8700000</v>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         </is>
       </c>
       <c r="AD31" t="n">
-        <v>11700000</v>
+        <v>8700000</v>
       </c>
       <c r="AE31" t="inlineStr">
         <is>
@@ -7182,7 +7182,7 @@
         </is>
       </c>
       <c r="AV31" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="AW31" t="inlineStr">
         <is>
@@ -7208,17 +7208,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>646614a9-9864-4cdc-a72b-2283914acefd</t>
+          <t>551b8192-7e28-4d6d-b116-e2e40a5283c3</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2024-06-25T15:18:00.000Z</t>
+          <t>2024-06-28T14:00:00.000Z</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -7231,7 +7231,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://www.notion.so/31-646614a998644cdca72b2283914acefd</t>
+          <t>https://www.notion.so/31-551b81927e284d6db116e2e40a5283c3</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -7425,17 +7425,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>e25ff82f-b3c8-4162-94da-26962c577e6f</t>
+          <t>5b3dd329-4293-42b5-80e0-1330f7e5d77b</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2024-06-25T09:40:00.000Z</t>
+          <t>2024-06-27T05:19:00.000Z</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -7448,7 +7448,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://www.notion.so/32-e25ff82fb3c8416294da26962c577e6f</t>
+          <t>https://www.notion.so/32-5b3dd329429342b580e01330f7e5d77b</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -7511,7 +7511,7 @@
         </is>
       </c>
       <c r="W33" t="n">
-        <v>57443000</v>
+        <v>47443000</v>
       </c>
       <c r="X33" t="inlineStr">
         <is>
@@ -7529,7 +7529,7 @@
         </is>
       </c>
       <c r="AA33" t="n">
-        <v>84650000</v>
+        <v>74650000</v>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         </is>
       </c>
       <c r="AD33" t="n">
-        <v>84650000</v>
+        <v>74650000</v>
       </c>
       <c r="AE33" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         </is>
       </c>
       <c r="AV33" t="n">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="AW33" t="inlineStr">
         <is>
@@ -7642,17 +7642,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2e4df6af-ce7f-438e-9d21-8b42888787d8</t>
+          <t>420881fe-5a64-41f5-83c7-4c39413c8d8d</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2024-06-25T09:39:00.000Z</t>
+          <t>2024-06-26T11:55:00.000Z</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -7665,7 +7665,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://www.notion.so/33-2e4df6afce7f438e9d218b42888787d8</t>
+          <t>https://www.notion.so/33-420881fe5a6441f583c74c39413c8d8d</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -7728,7 +7728,7 @@
         </is>
       </c>
       <c r="W34" t="n">
-        <v>12465000</v>
+        <v>9965000</v>
       </c>
       <c r="X34" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="AA34" t="n">
-        <v>18000000</v>
+        <v>15500000</v>
       </c>
       <c r="AB34" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         </is>
       </c>
       <c r="AD34" t="n">
-        <v>18000000</v>
+        <v>15500000</v>
       </c>
       <c r="AE34" t="inlineStr">
         <is>
@@ -7833,7 +7833,7 @@
         </is>
       </c>
       <c r="AV34" t="n">
-        <v>9500000</v>
+        <v>12000000</v>
       </c>
       <c r="AW34" t="inlineStr">
         <is>
@@ -7859,17 +7859,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>b344bc3e-71f3-43e5-a7c8-a845ae0c8270</t>
+          <t>61c88664-13a8-48a3-b0c6-0c943ec81d24</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2024-06-25T03:13:00.000Z</t>
+          <t>2024-06-25T15:21:00.000Z</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -7882,7 +7882,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://www.notion.so/34-b344bc3e71f343e5a7c8a845ae0c8270</t>
+          <t>https://www.notion.so/34-61c8866413a848a3b0c60c943ec81d24</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -7945,7 +7945,7 @@
         </is>
       </c>
       <c r="W35" t="n">
-        <v>27055000</v>
+        <v>14055000</v>
       </c>
       <c r="X35" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         </is>
       </c>
       <c r="AA35" t="n">
-        <v>32000000</v>
+        <v>19000000</v>
       </c>
       <c r="AB35" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         </is>
       </c>
       <c r="AD35" t="n">
-        <v>32000000</v>
+        <v>19000000</v>
       </c>
       <c r="AE35" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         </is>
       </c>
       <c r="AV35" t="n">
-        <v>8000000</v>
+        <v>21000000</v>
       </c>
       <c r="AW35" t="inlineStr">
         <is>
@@ -8076,17 +8076,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>796b1251-3d1b-4215-8601-eaff4e7c9b68</t>
+          <t>3ffcb89f-55d1-477e-a58a-a80a3a054b47</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2024-06-25T03:13:00.000Z</t>
+          <t>2024-06-25T15:21:00.000Z</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -8099,7 +8099,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://www.notion.so/35-796b12513d1b42158601eaff4e7c9b68</t>
+          <t>https://www.notion.so/35-3ffcb89f55d1477ea58aa80a3a054b47</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -8162,7 +8162,7 @@
         </is>
       </c>
       <c r="W36" t="n">
-        <v>17860000</v>
+        <v>12860000</v>
       </c>
       <c r="X36" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         </is>
       </c>
       <c r="AA36" t="n">
-        <v>22500000</v>
+        <v>17500000</v>
       </c>
       <c r="AB36" t="inlineStr">
         <is>
@@ -8193,7 +8193,7 @@
         </is>
       </c>
       <c r="AD36" t="n">
-        <v>17500000</v>
+        <v>12500000</v>
       </c>
       <c r="AE36" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         </is>
       </c>
       <c r="AV36" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="AW36" t="inlineStr">
         <is>
@@ -8293,17 +8293,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2dbf23bc-96b5-4c45-a032-449de4fc6c2a</t>
+          <t>646614a9-9864-4cdc-a72b-2283914acefd</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2024-06-25T03:13:00.000Z</t>
+          <t>2024-06-25T15:18:00.000Z</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -8316,7 +8316,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://www.notion.so/36-2dbf23bc96b54c45a032449de4fc6c2a</t>
+          <t>https://www.notion.so/36-646614a998644cdca72b2283914acefd</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -8379,7 +8379,7 @@
         </is>
       </c>
       <c r="W37" t="n">
-        <v>6840000</v>
+        <v>3840000</v>
       </c>
       <c r="X37" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="AA37" t="n">
-        <v>13000000</v>
+        <v>10000000</v>
       </c>
       <c r="AB37" t="inlineStr">
         <is>
@@ -8410,7 +8410,7 @@
         </is>
       </c>
       <c r="AD37" t="n">
-        <v>13000000</v>
+        <v>10000000</v>
       </c>
       <c r="AE37" t="inlineStr">
         <is>
@@ -8484,7 +8484,7 @@
         </is>
       </c>
       <c r="AV37" t="n">
-        <v>22000000</v>
+        <v>25000000</v>
       </c>
       <c r="AW37" t="inlineStr">
         <is>
@@ -8510,17 +8510,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>fb9c5676-a808-4dc6-bd44-e309dbce5fa5</t>
+          <t>e25ff82f-b3c8-4162-94da-26962c577e6f</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2024-06-25T03:13:00.000Z</t>
+          <t>2024-06-25T09:40:00.000Z</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -8533,7 +8533,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://www.notion.so/37-fb9c5676a8084dc6bd44e309dbce5fa5</t>
+          <t>https://www.notion.so/37-e25ff82fb3c8416294da26962c577e6f</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="W38" t="n">
-        <v>40560000</v>
+        <v>35560000</v>
       </c>
       <c r="X38" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         </is>
       </c>
       <c r="AA38" t="n">
-        <v>48700000</v>
+        <v>43700000</v>
       </c>
       <c r="AB38" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         </is>
       </c>
       <c r="AD38" t="n">
-        <v>48700000</v>
+        <v>43700000</v>
       </c>
       <c r="AE38" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         </is>
       </c>
       <c r="AV38" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="AW38" t="inlineStr">
         <is>
@@ -8727,17 +8727,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>7add5d63-cce1-4eac-b365-f50e7e00b6cc</t>
+          <t>2e4df6af-ce7f-438e-9d21-8b42888787d8</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2024-06-25T03:05:00.000Z</t>
+          <t>2024-06-25T09:39:00.000Z</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -8750,7 +8750,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://www.notion.so/38-7add5d63cce14eacb365f50e7e00b6cc</t>
+          <t>https://www.notion.so/38-2e4df6afce7f438e9d218b42888787d8</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
@@ -8813,7 +8813,7 @@
         </is>
       </c>
       <c r="W39" t="n">
-        <v>11278000</v>
+        <v>9278000</v>
       </c>
       <c r="X39" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         </is>
       </c>
       <c r="AA39" t="n">
-        <v>22000000</v>
+        <v>20000000</v>
       </c>
       <c r="AB39" t="inlineStr">
         <is>
@@ -8844,7 +8844,7 @@
         </is>
       </c>
       <c r="AD39" t="n">
-        <v>22000000</v>
+        <v>20000000</v>
       </c>
       <c r="AE39" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         </is>
       </c>
       <c r="AV39" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="AW39" t="inlineStr">
         <is>
@@ -8944,17 +8944,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>df53934a-e5df-452d-9863-bf6f9fab085a</t>
+          <t>b344bc3e-71f3-43e5-a7c8-a845ae0c8270</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2024-06-25T03:05:00.000Z</t>
+          <t>2024-06-25T03:13:00.000Z</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -8967,7 +8967,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://www.notion.so/39-df53934ae5df452d9863bf6f9fab085a</t>
+          <t>https://www.notion.so/39-b344bc3e71f343e5a7c8a845ae0c8270</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -9161,17 +9161,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0aed403a-3958-4747-8783-e2f73cd45ddf</t>
+          <t>796b1251-3d1b-4215-8601-eaff4e7c9b68</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2024-06-25T03:05:00.000Z</t>
+          <t>2024-06-25T03:13:00.000Z</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -9184,7 +9184,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://www.notion.so/40-0aed403a395847478783e2f73cd45ddf</t>
+          <t>https://www.notion.so/40-796b12513d1b42158601eaff4e7c9b68</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -9378,17 +9378,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>a16a55af-6817-4200-bc41-0f5dcc98fe8b</t>
+          <t>2dbf23bc-96b5-4c45-a032-449de4fc6c2a</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2024-06-25T03:05:00.000Z</t>
+          <t>2024-06-25T03:13:00.000Z</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -9401,7 +9401,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://www.notion.so/41-a16a55af68174200bc410f5dcc98fe8b</t>
+          <t>https://www.notion.so/41-2dbf23bc96b54c45a032449de4fc6c2a</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
@@ -9595,17 +9595,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>bf91e048-d329-45d1-a14b-095345a737bf</t>
+          <t>fb9c5676-a808-4dc6-bd44-e309dbce5fa5</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2024-06-25T03:05:00.000Z</t>
+          <t>2024-06-25T03:13:00.000Z</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -9618,7 +9618,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://www.notion.so/42-bf91e048d32945d1a14b095345a737bf</t>
+          <t>https://www.notion.so/42-fb9c5676a8084dc6bd44e309dbce5fa5</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -9681,7 +9681,7 @@
         </is>
       </c>
       <c r="W43" t="n">
-        <v>-4618000</v>
+        <v>-11018000</v>
       </c>
       <c r="X43" t="inlineStr">
         <is>
@@ -9699,7 +9699,7 @@
         </is>
       </c>
       <c r="AA43" t="n">
-        <v>18400000</v>
+        <v>12000000</v>
       </c>
       <c r="AB43" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         </is>
       </c>
       <c r="AD43" t="n">
-        <v>18400000</v>
+        <v>12000000</v>
       </c>
       <c r="AE43" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         </is>
       </c>
       <c r="AV43" t="n">
-        <v>-1600000</v>
+        <v>4800000</v>
       </c>
       <c r="AW43" t="inlineStr">
         <is>
@@ -9812,17 +9812,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ceda31bf-563b-49de-b855-66a69556885b</t>
+          <t>7add5d63-cce1-4eac-b365-f50e7e00b6cc</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2024-06-25T02:57:00.000Z</t>
+          <t>2024-06-25T03:05:00.000Z</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -9835,7 +9835,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://www.notion.so/43-ceda31bf563b49deb85566a69556885b</t>
+          <t>https://www.notion.so/43-7add5d63cce14eacb365f50e7e00b6cc</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -9898,7 +9898,7 @@
         </is>
       </c>
       <c r="W44" t="n">
-        <v>3287000</v>
+        <v>1787000</v>
       </c>
       <c r="X44" t="inlineStr">
         <is>
@@ -9916,7 +9916,7 @@
         </is>
       </c>
       <c r="AA44" t="n">
-        <v>4700000</v>
+        <v>3200000</v>
       </c>
       <c r="AB44" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         </is>
       </c>
       <c r="AD44" t="n">
-        <v>1700000</v>
+        <v>200000</v>
       </c>
       <c r="AE44" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         </is>
       </c>
       <c r="AV44" t="n">
-        <v>0</v>
+        <v>1500000</v>
       </c>
       <c r="AW44" t="inlineStr">
         <is>
@@ -10029,17 +10029,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>e5fa84a6-7667-4817-a52c-04e5e9d9df48</t>
+          <t>df53934a-e5df-452d-9863-bf6f9fab085a</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2024-06-25T01:56:00.000Z</t>
+          <t>2024-06-25T03:05:00.000Z</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -10052,7 +10052,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://www.notion.so/44-e5fa84a676674817a52c04e5e9d9df48</t>
+          <t>https://www.notion.so/44-df53934ae5df452d9863bf6f9fab085a</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
@@ -10115,7 +10115,7 @@
         </is>
       </c>
       <c r="W45" t="n">
-        <v>300000</v>
+        <v>-5700000</v>
       </c>
       <c r="X45" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         </is>
       </c>
       <c r="AA45" t="n">
-        <v>16000000</v>
+        <v>10000000</v>
       </c>
       <c r="AB45" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="AD45" t="n">
-        <v>16000000</v>
+        <v>10000000</v>
       </c>
       <c r="AE45" t="inlineStr">
         <is>
@@ -10220,7 +10220,7 @@
         </is>
       </c>
       <c r="AV45" t="n">
-        <v>22000000</v>
+        <v>28000000</v>
       </c>
       <c r="AW45" t="inlineStr">
         <is>
@@ -10246,17 +10246,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>3cc93476-770c-4fc5-8fb7-bf19e4366bc4</t>
+          <t>0aed403a-3958-4747-8783-e2f73cd45ddf</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2024-06-25T01:56:00.000Z</t>
+          <t>2024-06-25T03:05:00.000Z</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -10269,7 +10269,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://www.notion.so/45-3cc93476770c4fc58fb7bf19e4366bc4</t>
+          <t>https://www.notion.so/45-0aed403a395847478783e2f73cd45ddf</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
@@ -10332,7 +10332,7 @@
         </is>
       </c>
       <c r="W46" t="n">
-        <v>22825000</v>
+        <v>20825000</v>
       </c>
       <c r="X46" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         </is>
       </c>
       <c r="AA46" t="n">
-        <v>23500000</v>
+        <v>21500000</v>
       </c>
       <c r="AB46" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         </is>
       </c>
       <c r="AD46" t="n">
-        <v>23500000</v>
+        <v>21500000</v>
       </c>
       <c r="AE46" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         </is>
       </c>
       <c r="AV46" t="n">
-        <v>1500000</v>
+        <v>3500000</v>
       </c>
       <c r="AW46" t="inlineStr">
         <is>
@@ -10463,17 +10463,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0c1b1ed1-b38c-4740-a6b0-aa5e306bc997</t>
+          <t>a16a55af-6817-4200-bc41-0f5dcc98fe8b</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2024-06-25T01:56:00.000Z</t>
+          <t>2024-06-25T03:05:00.000Z</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -10486,7 +10486,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://www.notion.so/46-0c1b1ed1b38c4740a6b0aa5e306bc997</t>
+          <t>https://www.notion.so/46-a16a55af68174200bc410f5dcc98fe8b</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         </is>
       </c>
       <c r="W47" t="n">
-        <v>-11605000</v>
+        <v>-17605000</v>
       </c>
       <c r="X47" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="AA47" t="n">
-        <v>13000000</v>
+        <v>7000000</v>
       </c>
       <c r="AB47" t="inlineStr">
         <is>
@@ -10580,7 +10580,7 @@
         </is>
       </c>
       <c r="AD47" t="n">
-        <v>8000000</v>
+        <v>2000000</v>
       </c>
       <c r="AE47" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         </is>
       </c>
       <c r="AV47" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
       <c r="AW47" t="inlineStr">
         <is>
@@ -10680,17 +10680,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>86ae44bf-42e6-4c7f-8b13-fa13cb822124</t>
+          <t>bf91e048-d329-45d1-a14b-095345a737bf</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2024-06-25T01:56:00.000Z</t>
+          <t>2024-06-25T03:05:00.000Z</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -10703,7 +10703,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://www.notion.so/47-86ae44bf42e64c7f8b13fa13cb822124</t>
+          <t>https://www.notion.so/47-bf91e048d32945d1a14b095345a737bf</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -10897,17 +10897,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>c97267f7-485c-4680-8a95-6bcb55a38d89</t>
+          <t>ceda31bf-563b-49de-b855-66a69556885b</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2024-06-25T01:56:00.000Z</t>
+          <t>2024-06-25T02:57:00.000Z</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -10920,7 +10920,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://www.notion.so/48-c97267f7485c46808a956bcb55a38d89</t>
+          <t>https://www.notion.so/48-ceda31bf563b49deb85566a69556885b</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
@@ -10983,7 +10983,7 @@
         </is>
       </c>
       <c r="W49" t="n">
-        <v>8933000</v>
+        <v>3933000</v>
       </c>
       <c r="X49" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         </is>
       </c>
       <c r="AA49" t="n">
-        <v>10000000</v>
+        <v>5000000</v>
       </c>
       <c r="AB49" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         </is>
       </c>
       <c r="AD49" t="n">
-        <v>10000000</v>
+        <v>5000000</v>
       </c>
       <c r="AE49" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         </is>
       </c>
       <c r="AV49" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="AW49" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>8153333a-011b-4919-820f-d1f2f6dbbf5e</t>
+          <t>e5fa84a6-7667-4817-a52c-04e5e9d9df48</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -11124,7 +11124,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -11137,7 +11137,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://www.notion.so/49-8153333a011b4919820fd1f2f6dbbf5e</t>
+          <t>https://www.notion.so/49-e5fa84a676674817a52c04e5e9d9df48</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -11200,7 +11200,7 @@
         </is>
       </c>
       <c r="W50" t="n">
-        <v>1375000</v>
+        <v>-3625000</v>
       </c>
       <c r="X50" t="inlineStr">
         <is>
@@ -11218,7 +11218,7 @@
         </is>
       </c>
       <c r="AA50" t="n">
-        <v>15000000</v>
+        <v>10000000</v>
       </c>
       <c r="AB50" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         </is>
       </c>
       <c r="AD50" t="n">
-        <v>15000000</v>
+        <v>10000000</v>
       </c>
       <c r="AE50" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         </is>
       </c>
       <c r="AV50" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="AW50" t="inlineStr">
         <is>
@@ -11331,7 +11331,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>8de44170-ec9c-4bcc-8a82-2fc568a0a386</t>
+          <t>3cc93476-770c-4fc5-8fb7-bf19e4366bc4</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -11341,7 +11341,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -11354,7 +11354,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://www.notion.so/50-8de44170ec9c4bcc8a822fc568a0a386</t>
+          <t>https://www.notion.so/50-3cc93476770c4fc58fb7bf19e4366bc4</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
@@ -11417,7 +11417,7 @@
         </is>
       </c>
       <c r="W51" t="n">
-        <v>64770000</v>
+        <v>34770000</v>
       </c>
       <c r="X51" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         </is>
       </c>
       <c r="AA51" t="n">
-        <v>160000000</v>
+        <v>130000000</v>
       </c>
       <c r="AB51" t="inlineStr">
         <is>
@@ -11448,7 +11448,7 @@
         </is>
       </c>
       <c r="AD51" t="n">
-        <v>160000000</v>
+        <v>130000000</v>
       </c>
       <c r="AE51" t="inlineStr">
         <is>
@@ -11522,7 +11522,7 @@
         </is>
       </c>
       <c r="AV51" t="n">
-        <v>0</v>
+        <v>30000000</v>
       </c>
       <c r="AW51" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>91e54e88-ea6e-4842-81dd-e151ce52dc9d</t>
+          <t>0c1b1ed1-b38c-4740-a6b0-aa5e306bc997</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -11558,7 +11558,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -11571,7 +11571,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://www.notion.so/51-91e54e88ea6e484281dde151ce52dc9d</t>
+          <t>https://www.notion.so/51-0c1b1ed1b38c4740a6b0aa5e306bc997</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -11765,7 +11765,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1915e040-0fa9-45a5-b113-a9c400d8a035</t>
+          <t>86ae44bf-42e6-4c7f-8b13-fa13cb822124</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -11775,7 +11775,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -11788,7 +11788,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://www.notion.so/52-1915e0400fa945a5b113a9c400d8a035</t>
+          <t>https://www.notion.so/52-86ae44bf42e64c7f8b13fa13cb822124</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -11851,7 +11851,7 @@
         </is>
       </c>
       <c r="W53" t="n">
-        <v>17115000</v>
+        <v>12115000</v>
       </c>
       <c r="X53" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         </is>
       </c>
       <c r="AA53" t="n">
-        <v>43000000</v>
+        <v>38000000</v>
       </c>
       <c r="AB53" t="inlineStr">
         <is>
@@ -11882,7 +11882,7 @@
         </is>
       </c>
       <c r="AD53" t="n">
-        <v>43000000</v>
+        <v>38000000</v>
       </c>
       <c r="AE53" t="inlineStr">
         <is>
@@ -11956,7 +11956,7 @@
         </is>
       </c>
       <c r="AV53" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="AW53" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>9601e83d-fa3c-4426-9d40-3c91776cd0a5</t>
+          <t>c97267f7-485c-4680-8a95-6bcb55a38d89</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -12005,7 +12005,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://www.notion.so/53-9601e83dfa3c44269d403c91776cd0a5</t>
+          <t>https://www.notion.so/53-c97267f7485c46808a956bcb55a38d89</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -12199,17 +12199,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>600a3c5b-b714-40ea-91a4-c53230e174a4</t>
+          <t>8153333a-011b-4919-820f-d1f2f6dbbf5e</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2024-06-25T01:55:00.000Z</t>
+          <t>2024-06-25T01:56:00.000Z</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -12222,7 +12222,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://www.notion.so/54-600a3c5bb71440ea91a4c53230e174a4</t>
+          <t>https://www.notion.so/54-8153333a011b4919820fd1f2f6dbbf5e</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="W55" t="n">
-        <v>38125000</v>
+        <v>37125000</v>
       </c>
       <c r="X55" t="inlineStr">
         <is>
@@ -12303,7 +12303,7 @@
         </is>
       </c>
       <c r="AA55" t="n">
-        <v>50500000</v>
+        <v>49500000</v>
       </c>
       <c r="AB55" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         </is>
       </c>
       <c r="AD55" t="n">
-        <v>36500000</v>
+        <v>35500000</v>
       </c>
       <c r="AE55" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         </is>
       </c>
       <c r="AV55" t="n">
-        <v>2000000</v>
+        <v>3000000</v>
       </c>
       <c r="AW55" t="inlineStr">
         <is>
@@ -12416,17 +12416,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0819d336-e046-4aa9-a68c-74d8734f111b</t>
+          <t>8de44170-ec9c-4bcc-8a82-2fc568a0a386</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2024-06-25T01:55:00.000Z</t>
+          <t>2024-06-25T01:56:00.000Z</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -12439,7 +12439,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://www.notion.so/55-0819d336e0464aa9a68c74d8734f111b</t>
+          <t>https://www.notion.so/55-8de44170ec9c4bcc8a822fc568a0a386</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -12633,17 +12633,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>f6c48f5e-2ea1-4442-994d-00dd050d7573</t>
+          <t>91e54e88-ea6e-4842-81dd-e151ce52dc9d</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2024-06-25T01:55:00.000Z</t>
+          <t>2024-06-25T01:56:00.000Z</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -12656,7 +12656,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://www.notion.so/56-f6c48f5e2ea14442994d00dd050d7573</t>
+          <t>https://www.notion.so/56-91e54e88ea6e484281dde151ce52dc9d</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -12850,17 +12850,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>fea89f72-9297-429c-872e-5f22167f0ddd</t>
+          <t>1915e040-0fa9-45a5-b113-a9c400d8a035</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2024-06-25T01:55:00.000Z</t>
+          <t>2024-06-25T01:56:00.000Z</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -12873,7 +12873,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://www.notion.so/57-fea89f729297429c872e5f22167f0ddd</t>
+          <t>https://www.notion.so/57-1915e0400fa945a5b113a9c400d8a035</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
@@ -12936,7 +12936,7 @@
         </is>
       </c>
       <c r="W58" t="n">
-        <v>17747000</v>
+        <v>7347000</v>
       </c>
       <c r="X58" t="inlineStr">
         <is>
@@ -12954,7 +12954,7 @@
         </is>
       </c>
       <c r="AA58" t="n">
-        <v>29800000</v>
+        <v>19400000</v>
       </c>
       <c r="AB58" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="AD58" t="n">
-        <v>25400000</v>
+        <v>15000000</v>
       </c>
       <c r="AE58" t="inlineStr">
         <is>
@@ -13041,7 +13041,7 @@
         </is>
       </c>
       <c r="AV58" t="n">
-        <v>26500000</v>
+        <v>36900000</v>
       </c>
       <c r="AW58" t="inlineStr">
         <is>
@@ -13067,17 +13067,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>415678f2-6740-428a-b0ff-ac64f3b76690</t>
+          <t>9601e83d-fa3c-4426-9d40-3c91776cd0a5</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2024-06-25T01:55:00.000Z</t>
+          <t>2024-06-25T01:56:00.000Z</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://www.notion.so/58-415678f26740428ab0ffac64f3b76690</t>
+          <t>https://www.notion.so/58-9601e83dfa3c44269d403c91776cd0a5</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -13153,7 +13153,7 @@
         </is>
       </c>
       <c r="W59" t="n">
-        <v>87299000</v>
+        <v>67299000</v>
       </c>
       <c r="X59" t="inlineStr">
         <is>
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="AA59" t="n">
-        <v>97450000</v>
+        <v>77450000</v>
       </c>
       <c r="AB59" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         </is>
       </c>
       <c r="AD59" t="n">
-        <v>97450000</v>
+        <v>77450000</v>
       </c>
       <c r="AE59" t="inlineStr">
         <is>
@@ -13258,7 +13258,7 @@
         </is>
       </c>
       <c r="AV59" t="n">
-        <v>0</v>
+        <v>20000000</v>
       </c>
       <c r="AW59" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ef8d636c-57ef-4df9-b102-21ff62a18e37</t>
+          <t>600a3c5b-b714-40ea-91a4-c53230e174a4</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -13294,7 +13294,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -13307,7 +13307,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://www.notion.so/59-ef8d636c57ef4df9b10221ff62a18e37</t>
+          <t>https://www.notion.so/59-600a3c5bb71440ea91a4c53230e174a4</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
@@ -13501,17 +13501,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>9dd551e6-e5cf-4813-b4ab-304e4734155a</t>
+          <t>0819d336-e046-4aa9-a68c-74d8734f111b</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2024-06-25T01:43:00.000Z</t>
+          <t>2024-06-25T01:55:00.000Z</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -13524,7 +13524,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://www.notion.so/60-9dd551e6e5cf4813b4ab304e4734155a</t>
+          <t>https://www.notion.so/60-0819d336e0464aa9a68c74d8734f111b</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
@@ -13718,17 +13718,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>488babcc-5d0a-452d-a424-45df5507a6e3</t>
+          <t>f6c48f5e-2ea1-4442-994d-00dd050d7573</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2024-06-25T01:43:00.000Z</t>
+          <t>2024-06-25T01:55:00.000Z</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:03:00.000Z</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -13741,7 +13741,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://www.notion.so/61-488babcc5d0a452da42445df5507a6e3</t>
+          <t>https://www.notion.so/61-f6c48f5e2ea14442994d00dd050d7573</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -13804,7 +13804,7 @@
         </is>
       </c>
       <c r="W62" t="n">
-        <v>1640000</v>
+        <v>-1360000</v>
       </c>
       <c r="X62" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         </is>
       </c>
       <c r="AA62" t="n">
-        <v>9200000</v>
+        <v>6200000</v>
       </c>
       <c r="AB62" t="inlineStr">
         <is>
@@ -13835,7 +13835,7 @@
         </is>
       </c>
       <c r="AD62" t="n">
-        <v>9200000</v>
+        <v>6200000</v>
       </c>
       <c r="AE62" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         </is>
       </c>
       <c r="AV62" t="n">
-        <v>9000000</v>
+        <v>12000000</v>
       </c>
       <c r="AW62" t="inlineStr">
         <is>
@@ -13935,17 +13935,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>e9dbc2c7-a16d-43de-bad1-264d033dd2f3</t>
+          <t>fea89f72-9297-429c-872e-5f22167f0ddd</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2024-06-25T01:43:00.000Z</t>
+          <t>2024-06-25T01:55:00.000Z</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:03:00.000Z</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -13958,7 +13958,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://www.notion.so/62-e9dbc2c7a16d43debad1264d033dd2f3</t>
+          <t>https://www.notion.so/62-fea89f729297429c872e5f22167f0ddd</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="W63" t="n">
-        <v>52631000</v>
+        <v>26031000</v>
       </c>
       <c r="X63" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         </is>
       </c>
       <c r="AA63" t="n">
-        <v>53600000</v>
+        <v>27000000</v>
       </c>
       <c r="AB63" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         </is>
       </c>
       <c r="AD63" t="n">
-        <v>53600000</v>
+        <v>27000000</v>
       </c>
       <c r="AE63" t="inlineStr">
         <is>
@@ -14126,7 +14126,7 @@
         </is>
       </c>
       <c r="AV63" t="n">
-        <v>20400000</v>
+        <v>47000000</v>
       </c>
       <c r="AW63" t="inlineStr">
         <is>
@@ -14152,17 +14152,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>be62e55e-9269-4581-a2f7-4dd68fe99cbd</t>
+          <t>415678f2-6740-428a-b0ff-ac64f3b76690</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2024-06-25T01:43:00.000Z</t>
+          <t>2024-06-25T01:55:00.000Z</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:03:00.000Z</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -14175,7 +14175,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://www.notion.so/63-be62e55e92694581a2f74dd68fe99cbd</t>
+          <t>https://www.notion.so/63-415678f26740428ab0ffac64f3b76690</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -14369,17 +14369,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>d9c1e1c3-0688-425c-8f9b-6606145353b9</t>
+          <t>ef8d636c-57ef-4df9-b102-21ff62a18e37</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2024-06-24T17:12:00.000Z</t>
+          <t>2024-06-25T01:55:00.000Z</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:03:00.000Z</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -14392,7 +14392,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://www.notion.so/64-d9c1e1c30688425c8f9b6606145353b9</t>
+          <t>https://www.notion.so/64-ef8d636c57ef4df9b10221ff62a18e37</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -14586,17 +14586,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1b7af46b-d075-4d07-8e3d-34b70d11ed6a</t>
+          <t>9dd551e6-e5cf-4813-b4ab-304e4734155a</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2024-06-24T17:12:00.000Z</t>
+          <t>2024-06-25T01:43:00.000Z</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:03:00.000Z</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -14609,7 +14609,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://www.notion.so/65-1b7af46bd0754d078e3d34b70d11ed6a</t>
+          <t>https://www.notion.so/65-9dd551e6e5cf4813b4ab304e4734155a</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
@@ -14803,17 +14803,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>05ea37ab-6a1f-4b85-8cf7-3837087e14c6</t>
+          <t>488babcc-5d0a-452d-a424-45df5507a6e3</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2024-06-24T17:12:00.000Z</t>
+          <t>2024-06-25T01:43:00.000Z</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:03:00.000Z</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -14826,7 +14826,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://www.notion.so/66-05ea37ab6a1f4b858cf73837087e14c6</t>
+          <t>https://www.notion.so/66-488babcc5d0a452da42445df5507a6e3</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -15020,17 +15020,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>f9b6d9fb-9f0b-4c27-850a-3096e797aada</t>
+          <t>e9dbc2c7-a16d-43de-bad1-264d033dd2f3</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2024-06-24T17:12:00.000Z</t>
+          <t>2024-06-25T01:43:00.000Z</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:03:00.000Z</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -15043,7 +15043,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://www.notion.so/67-f9b6d9fb9f0b4c27850a3096e797aada</t>
+          <t>https://www.notion.so/67-e9dbc2c7a16d43debad1264d033dd2f3</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -15106,7 +15106,7 @@
         </is>
       </c>
       <c r="W68" t="n">
-        <v>30613000</v>
+        <v>3613000</v>
       </c>
       <c r="X68" t="inlineStr">
         <is>
@@ -15124,7 +15124,7 @@
         </is>
       </c>
       <c r="AA68" t="n">
-        <v>60000000</v>
+        <v>33000000</v>
       </c>
       <c r="AB68" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         </is>
       </c>
       <c r="AD68" t="n">
-        <v>55000000</v>
+        <v>28000000</v>
       </c>
       <c r="AE68" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="AV68" t="n">
-        <v>14000000</v>
+        <v>41000000</v>
       </c>
       <c r="AW68" t="inlineStr">
         <is>
@@ -15237,17 +15237,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>b91a1bc1-abbc-41ae-8f1c-5115ed8c076b</t>
+          <t>be62e55e-9269-4581-a2f7-4dd68fe99cbd</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2024-06-24T17:12:00.000Z</t>
+          <t>2024-06-25T01:43:00.000Z</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T16:03:00.000Z</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -15260,7 +15260,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://www.notion.so/68-b91a1bc1abbc41ae8f1c5115ed8c076b</t>
+          <t>https://www.notion.so/68-be62e55e92694581a2f74dd68fe99cbd</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -15454,7 +15454,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>09553ce9-1ae1-4156-a6f7-c239654c7847</t>
+          <t>d9c1e1c3-0688-425c-8f9b-6606145353b9</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -15464,7 +15464,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T15:56:00.000Z</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -15477,7 +15477,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://www.notion.so/69-09553ce91ae14156a6f7c239654c7847</t>
+          <t>https://www.notion.so/69-d9c1e1c30688425c8f9b6606145353b9</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -15671,7 +15671,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>b1e72825-b8ab-4bba-a7ec-36a8010b9d53</t>
+          <t>1b7af46b-d075-4d07-8e3d-34b70d11ed6a</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -15681,7 +15681,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T15:56:00.000Z</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -15694,7 +15694,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://www.notion.so/70-b1e72825b8ab4bbaa7ec36a8010b9d53</t>
+          <t>https://www.notion.so/70-1b7af46bd0754d078e3d34b70d11ed6a</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -15888,7 +15888,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>c992cc9b-e4a4-42bf-9292-ecbf3d444afb</t>
+          <t>05ea37ab-6a1f-4b85-8cf7-3837087e14c6</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -15898,7 +15898,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T15:56:00.000Z</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -15911,7 +15911,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://www.notion.so/71-c992cc9be4a442bf9292ecbf3d444afb</t>
+          <t>https://www.notion.so/71-05ea37ab6a1f4b858cf73837087e14c6</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -15974,7 +15974,7 @@
         </is>
       </c>
       <c r="W72" t="n">
-        <v>20665000</v>
+        <v>16665000</v>
       </c>
       <c r="X72" t="inlineStr">
         <is>
@@ -15992,7 +15992,7 @@
         </is>
       </c>
       <c r="AA72" t="n">
-        <v>23000000</v>
+        <v>19000000</v>
       </c>
       <c r="AB72" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         </is>
       </c>
       <c r="AD72" t="n">
-        <v>23000000</v>
+        <v>19000000</v>
       </c>
       <c r="AE72" t="inlineStr">
         <is>
@@ -16079,7 +16079,7 @@
         </is>
       </c>
       <c r="AV72" t="n">
-        <v>500000</v>
+        <v>4500000</v>
       </c>
       <c r="AW72" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1f293830-720a-47e6-8684-dc7441d8c647</t>
+          <t>f9b6d9fb-9f0b-4c27-850a-3096e797aada</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -16115,7 +16115,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T15:56:00.000Z</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -16128,7 +16128,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://www.notion.so/72-1f293830720a47e68684dc7441d8c647</t>
+          <t>https://www.notion.so/72-f9b6d9fb9f0b4c27850a3096e797aada</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -16322,7 +16322,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>09c4941f-1337-4ff6-8d2d-fd350249ff4f</t>
+          <t>b91a1bc1-abbc-41ae-8f1c-5115ed8c076b</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -16332,7 +16332,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T15:56:00.000Z</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -16345,7 +16345,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://www.notion.so/73-09c4941f13374ff68d2dfd350249ff4f</t>
+          <t>https://www.notion.so/73-b91a1bc1abbc41ae8f1c5115ed8c076b</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -16539,7 +16539,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>13a3ba95-1ecd-47ab-b5a7-8505067eb7f4</t>
+          <t>09553ce9-1ae1-4156-a6f7-c239654c7847</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -16549,7 +16549,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T15:56:00.000Z</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -16562,7 +16562,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://www.notion.so/74-13a3ba951ecd47abb5a78505067eb7f4</t>
+          <t>https://www.notion.so/74-09553ce91ae14156a6f7c239654c7847</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -16625,7 +16625,7 @@
         </is>
       </c>
       <c r="W75" t="n">
-        <v>6805000</v>
+        <v>3805000</v>
       </c>
       <c r="X75" t="inlineStr">
         <is>
@@ -16643,7 +16643,7 @@
         </is>
       </c>
       <c r="AA75" t="n">
-        <v>8000000</v>
+        <v>5000000</v>
       </c>
       <c r="AB75" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         </is>
       </c>
       <c r="AD75" t="n">
-        <v>8000000</v>
+        <v>5000000</v>
       </c>
       <c r="AE75" t="inlineStr">
         <is>
@@ -16730,7 +16730,7 @@
         </is>
       </c>
       <c r="AV75" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="AW75" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>76c25655-8bdf-4a36-9366-de1af3abbd59</t>
+          <t>b1e72825-b8ab-4bba-a7ec-36a8010b9d53</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -16766,7 +16766,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T15:56:00.000Z</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -16779,7 +16779,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://www.notion.so/75-76c256558bdf4a369366de1af3abbd59</t>
+          <t>https://www.notion.so/75-b1e72825b8ab4bbaa7ec36a8010b9d53</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
@@ -16842,7 +16842,7 @@
         </is>
       </c>
       <c r="W76" t="n">
-        <v>17045000</v>
+        <v>8045000</v>
       </c>
       <c r="X76" t="inlineStr">
         <is>
@@ -16860,7 +16860,7 @@
         </is>
       </c>
       <c r="AA76" t="n">
-        <v>29000000</v>
+        <v>20000000</v>
       </c>
       <c r="AB76" t="inlineStr">
         <is>
@@ -16873,7 +16873,7 @@
         </is>
       </c>
       <c r="AD76" t="n">
-        <v>26000000</v>
+        <v>17000000</v>
       </c>
       <c r="AE76" t="inlineStr">
         <is>
@@ -16947,7 +16947,7 @@
         </is>
       </c>
       <c r="AV76" t="n">
-        <v>11000000</v>
+        <v>20000000</v>
       </c>
       <c r="AW76" t="inlineStr">
         <is>
@@ -16973,7 +16973,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2d16cd2a-d3f6-4614-a322-95c0ff2e1932</t>
+          <t>c992cc9b-e4a4-42bf-9292-ecbf3d444afb</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -16983,7 +16983,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T15:56:00.000Z</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -16996,7 +16996,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://www.notion.so/76-2d16cd2ad3f64614a32295c0ff2e1932</t>
+          <t>https://www.notion.so/76-c992cc9be4a442bf9292ecbf3d444afb</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -17190,7 +17190,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2b907fc2-cb5f-4e57-b12f-96529f925caa</t>
+          <t>1f293830-720a-47e6-8684-dc7441d8c647</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -17200,7 +17200,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T15:56:00.000Z</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -17213,7 +17213,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://www.notion.so/77-2b907fc2cb5f4e57b12f96529f925caa</t>
+          <t>https://www.notion.so/77-1f293830720a47e68684dc7441d8c647</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -17276,7 +17276,7 @@
         </is>
       </c>
       <c r="W78" t="n">
-        <v>10060000</v>
+        <v>9660000</v>
       </c>
       <c r="X78" t="inlineStr">
         <is>
@@ -17294,7 +17294,7 @@
         </is>
       </c>
       <c r="AA78" t="n">
-        <v>10200000</v>
+        <v>9800000</v>
       </c>
       <c r="AB78" t="inlineStr">
         <is>
@@ -17307,7 +17307,7 @@
         </is>
       </c>
       <c r="AD78" t="n">
-        <v>7400000</v>
+        <v>7000000</v>
       </c>
       <c r="AE78" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         </is>
       </c>
       <c r="AV78" t="n">
-        <v>7000000</v>
+        <v>7400000</v>
       </c>
       <c r="AW78" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>b010dadd-e399-4352-9046-d832559a9b9d</t>
+          <t>09c4941f-1337-4ff6-8d2d-fd350249ff4f</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -17417,7 +17417,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T15:56:00.000Z</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -17430,7 +17430,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://www.notion.so/78-b010dadde39943529046d832559a9b9d</t>
+          <t>https://www.notion.so/78-09c4941f13374ff68d2dfd350249ff4f</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -17624,7 +17624,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1e19c8a8-2d9a-4e80-9ca0-a34294dd3f99</t>
+          <t>13a3ba95-1ecd-47ab-b5a7-8505067eb7f4</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -17634,7 +17634,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T15:56:00.000Z</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -17647,7 +17647,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://www.notion.so/79-1e19c8a82d9a4e809ca0a34294dd3f99</t>
+          <t>https://www.notion.so/79-13a3ba951ecd47abb5a78505067eb7f4</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         </is>
       </c>
       <c r="W80" t="n">
-        <v>36217000</v>
+        <v>29831000</v>
       </c>
       <c r="X80" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         </is>
       </c>
       <c r="AA80" t="n">
-        <v>39086000</v>
+        <v>32700000</v>
       </c>
       <c r="AB80" t="inlineStr">
         <is>
@@ -17741,7 +17741,7 @@
         </is>
       </c>
       <c r="AD80" t="n">
-        <v>29086000</v>
+        <v>22700000</v>
       </c>
       <c r="AE80" t="inlineStr">
         <is>
@@ -17815,7 +17815,7 @@
         </is>
       </c>
       <c r="AV80" t="n">
-        <v>2000000</v>
+        <v>8386000</v>
       </c>
       <c r="AW80" t="inlineStr">
         <is>
@@ -17841,7 +17841,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>9e8c94d1-45de-4a0c-8bb4-5a3ef8033f59</t>
+          <t>76c25655-8bdf-4a36-9366-de1af3abbd59</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -17851,7 +17851,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T15:56:00.000Z</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -17864,7 +17864,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://www.notion.so/80-9e8c94d145de4a0c8bb45a3ef8033f59</t>
+          <t>https://www.notion.so/80-76c256558bdf4a369366de1af3abbd59</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="W81" t="n">
-        <v>65825000</v>
+        <v>57325000</v>
       </c>
       <c r="X81" t="inlineStr">
         <is>
@@ -17945,7 +17945,7 @@
         </is>
       </c>
       <c r="AA81" t="n">
-        <v>68800000</v>
+        <v>60300000</v>
       </c>
       <c r="AB81" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         </is>
       </c>
       <c r="AD81" t="n">
-        <v>68800000</v>
+        <v>60300000</v>
       </c>
       <c r="AE81" t="inlineStr">
         <is>
@@ -18032,7 +18032,7 @@
         </is>
       </c>
       <c r="AV81" t="n">
-        <v>0</v>
+        <v>8500000</v>
       </c>
       <c r="AW81" t="inlineStr">
         <is>
@@ -18058,7 +18058,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>e3af674b-0930-46bb-9565-45f139657c05</t>
+          <t>2d16cd2a-d3f6-4614-a322-95c0ff2e1932</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -18068,7 +18068,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2024-07-23T19:35:00.000Z</t>
+          <t>2024-07-24T15:56:00.000Z</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -18081,7 +18081,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://www.notion.so/81-e3af674b093046bb956545f139657c05</t>
+          <t>https://www.notion.so/81-2d16cd2ad3f64614a32295c0ff2e1932</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
@@ -18144,7 +18144,7 @@
         </is>
       </c>
       <c r="W82" t="n">
-        <v>40325000</v>
+        <v>32325000</v>
       </c>
       <c r="X82" t="inlineStr">
         <is>
@@ -18162,7 +18162,7 @@
         </is>
       </c>
       <c r="AA82" t="n">
-        <v>40500000</v>
+        <v>32500000</v>
       </c>
       <c r="AB82" t="inlineStr">
         <is>
@@ -18175,7 +18175,7 @@
         </is>
       </c>
       <c r="AD82" t="n">
-        <v>40500000</v>
+        <v>32500000</v>
       </c>
       <c r="AE82" t="inlineStr">
         <is>
@@ -18249,7 +18249,7 @@
         </is>
       </c>
       <c r="AV82" t="n">
-        <v>7000000</v>
+        <v>15000000</v>
       </c>
       <c r="AW82" t="inlineStr">
         <is>
@@ -18275,7 +18275,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>5a5cefea-cbd8-41cd-b5d0-dcd547274de9</t>
+          <t>2b907fc2-cb5f-4e57-b12f-96529f925caa</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -18285,7 +18285,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:56:00.000Z</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -18298,7 +18298,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://www.notion.so/82-5a5cefeacbd841cdb5d0dcd547274de9</t>
+          <t>https://www.notion.so/82-2b907fc2cb5f4e57b12f96529f925caa</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
@@ -18361,7 +18361,7 @@
         </is>
       </c>
       <c r="W83" t="n">
-        <v>25075000</v>
+        <v>20075000</v>
       </c>
       <c r="X83" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         </is>
       </c>
       <c r="AA83" t="n">
-        <v>30000000</v>
+        <v>25000000</v>
       </c>
       <c r="AB83" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         </is>
       </c>
       <c r="AD83" t="n">
-        <v>30000000</v>
+        <v>25000000</v>
       </c>
       <c r="AE83" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         </is>
       </c>
       <c r="AV83" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="AW83" t="inlineStr">
         <is>
@@ -18492,7 +18492,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>e233f83e-f2c2-459e-9f08-05051fbdc257</t>
+          <t>b010dadd-e399-4352-9046-d832559a9b9d</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -18502,7 +18502,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:56:00.000Z</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -18515,7 +18515,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://www.notion.so/83-e233f83ef2c2459e9f0805051fbdc257</t>
+          <t>https://www.notion.so/83-b010dadde39943529046d832559a9b9d</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -18709,7 +18709,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>58142be4-00ee-435f-ac0a-dd0be7b6bbeb</t>
+          <t>1e19c8a8-2d9a-4e80-9ca0-a34294dd3f99</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -18719,7 +18719,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:56:00.000Z</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -18732,7 +18732,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://www.notion.so/84-58142be400ee435fac0add0be7b6bbeb</t>
+          <t>https://www.notion.so/84-1e19c8a82d9a4e809ca0a34294dd3f99</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
@@ -18795,7 +18795,7 @@
         </is>
       </c>
       <c r="W85" t="n">
-        <v>65765000</v>
+        <v>60765000</v>
       </c>
       <c r="X85" t="inlineStr">
         <is>
@@ -18813,7 +18813,7 @@
         </is>
       </c>
       <c r="AA85" t="n">
-        <v>66000000</v>
+        <v>61000000</v>
       </c>
       <c r="AB85" t="inlineStr">
         <is>
@@ -18826,7 +18826,7 @@
         </is>
       </c>
       <c r="AD85" t="n">
-        <v>66000000</v>
+        <v>61000000</v>
       </c>
       <c r="AE85" t="inlineStr">
         <is>
@@ -18900,7 +18900,7 @@
         </is>
       </c>
       <c r="AV85" t="n">
-        <v>5000000</v>
+        <v>10000000</v>
       </c>
       <c r="AW85" t="inlineStr">
         <is>
@@ -18926,7 +18926,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>427b861d-7917-4e7f-8db6-7da3b3cf80a6</t>
+          <t>9e8c94d1-45de-4a0c-8bb4-5a3ef8033f59</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -18936,7 +18936,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:56:00.000Z</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -18949,7 +18949,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://www.notion.so/85-427b861d79174e7f8db67da3b3cf80a6</t>
+          <t>https://www.notion.so/85-9e8c94d145de4a0c8bb45a3ef8033f59</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
@@ -19012,7 +19012,7 @@
         </is>
       </c>
       <c r="W86" t="n">
-        <v>5500000</v>
+        <v>2500000</v>
       </c>
       <c r="X86" t="inlineStr">
         <is>
@@ -19030,7 +19030,7 @@
         </is>
       </c>
       <c r="AA86" t="n">
-        <v>7000000</v>
+        <v>4000000</v>
       </c>
       <c r="AB86" t="inlineStr">
         <is>
@@ -19043,7 +19043,7 @@
         </is>
       </c>
       <c r="AD86" t="n">
-        <v>4000000</v>
+        <v>1000000</v>
       </c>
       <c r="AE86" t="inlineStr">
         <is>
@@ -19117,7 +19117,7 @@
         </is>
       </c>
       <c r="AV86" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="AW86" t="inlineStr">
         <is>
@@ -19143,7 +19143,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>11fb8060-280e-45f4-867c-fe5bd15411a0</t>
+          <t>e3af674b-0930-46bb-9565-45f139657c05</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -19153,7 +19153,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:56:00.000Z</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
@@ -19166,7 +19166,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://www.notion.so/86-11fb8060280e45f4867cfe5bd15411a0</t>
+          <t>https://www.notion.so/86-e3af674b093046bb956545f139657c05</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -19360,7 +19360,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>8122a3bb-6764-4ab7-b787-84f3f2ca87ee</t>
+          <t>5a5cefea-cbd8-41cd-b5d0-dcd547274de9</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -19370,7 +19370,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:56:00.000Z</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
@@ -19383,7 +19383,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://www.notion.so/87-8122a3bb67644ab7b78784f3f2ca87ee</t>
+          <t>https://www.notion.so/87-5a5cefeacbd841cdb5d0dcd547274de9</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
@@ -19577,7 +19577,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>b4c2d49b-afb7-407b-bde0-f0f73f20353a</t>
+          <t>e233f83e-f2c2-459e-9f08-05051fbdc257</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -19587,7 +19587,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:56:00.000Z</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
@@ -19600,7 +19600,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://www.notion.so/88-b4c2d49bafb7407bbde0f0f73f20353a</t>
+          <t>https://www.notion.so/88-e233f83ef2c2459e9f0805051fbdc257</t>
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
@@ -19794,7 +19794,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>041df600-3403-42b8-bd0c-a5d61e0f2214</t>
+          <t>58142be4-00ee-435f-ac0a-dd0be7b6bbeb</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -19804,7 +19804,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:56:00.000Z</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
@@ -19817,7 +19817,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://www.notion.so/89-041df600340342b8bd0ca5d61e0f2214</t>
+          <t>https://www.notion.so/89-58142be400ee435fac0add0be7b6bbeb</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
@@ -20011,7 +20011,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>35d891f2-1f92-42ed-b02a-0ac30333cedf</t>
+          <t>427b861d-7917-4e7f-8db6-7da3b3cf80a6</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -20021,7 +20021,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:56:00.000Z</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
@@ -20034,7 +20034,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://www.notion.so/90-35d891f21f9242edb02a0ac30333cedf</t>
+          <t>https://www.notion.so/90-427b861d79174e7f8db67da3b3cf80a6</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -20228,7 +20228,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>5d77ed79-565d-46c2-bc6a-2535cf4837ae</t>
+          <t>11fb8060-280e-45f4-867c-fe5bd15411a0</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -20238,7 +20238,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:56:00.000Z</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
@@ -20251,7 +20251,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://www.notion.so/91-5d77ed79565d46c2bc6a2535cf4837ae</t>
+          <t>https://www.notion.so/91-11fb8060280e45f4867cfe5bd15411a0</t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
@@ -20445,7 +20445,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>e6730d11-380a-41bb-a8d5-8d3c50bd9222</t>
+          <t>8122a3bb-6764-4ab7-b787-84f3f2ca87ee</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -20455,7 +20455,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:56:00.000Z</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
@@ -20468,7 +20468,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://www.notion.so/92-e6730d11380a41bba8d58d3c50bd9222</t>
+          <t>https://www.notion.so/92-8122a3bb67644ab7b78784f3f2ca87ee</t>
         </is>
       </c>
       <c r="J93" t="inlineStr"/>
@@ -20662,7 +20662,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>f1f89d36-3dfc-47f0-adc4-b7f4944a11b4</t>
+          <t>b4c2d49b-afb7-407b-bde0-f0f73f20353a</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -20672,7 +20672,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:56:00.000Z</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
@@ -20685,7 +20685,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://www.notion.so/93-f1f89d363dfc47f0adc4b7f4944a11b4</t>
+          <t>https://www.notion.so/93-b4c2d49bafb7407bbde0f0f73f20353a</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
@@ -20879,7 +20879,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>4163582a-d393-4443-9921-faee57f55b8a</t>
+          <t>041df600-3403-42b8-bd0c-a5d61e0f2214</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -20889,7 +20889,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:56:00.000Z</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
@@ -20902,7 +20902,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://www.notion.so/94-4163582ad39344439921faee57f55b8a</t>
+          <t>https://www.notion.so/94-041df600340342b8bd0ca5d61e0f2214</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
@@ -21096,7 +21096,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>bedc4c40-3289-481a-a093-d1cd90e5032d</t>
+          <t>35d891f2-1f92-42ed-b02a-0ac30333cedf</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -21106,7 +21106,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E96" t="inlineStr"/>
@@ -21119,7 +21119,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://www.notion.so/95-bedc4c403289481aa093d1cd90e5032d</t>
+          <t>https://www.notion.so/95-35d891f21f9242edb02a0ac30333cedf</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
@@ -21313,7 +21313,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>06a4d1f1-edf0-493f-ab60-8a5a0c455d04</t>
+          <t>5d77ed79-565d-46c2-bc6a-2535cf4837ae</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -21323,7 +21323,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
@@ -21336,7 +21336,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://www.notion.so/96-06a4d1f1edf0493fab608a5a0c455d04</t>
+          <t>https://www.notion.so/96-5d77ed79565d46c2bc6a2535cf4837ae</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
@@ -21530,7 +21530,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>b2b51a2a-2ddf-4a49-b11a-7ffe4deed937</t>
+          <t>e6730d11-380a-41bb-a8d5-8d3c50bd9222</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -21540,7 +21540,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
@@ -21553,7 +21553,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://www.notion.so/97-b2b51a2a2ddf4a49b11a7ffe4deed937</t>
+          <t>https://www.notion.so/97-e6730d11380a41bba8d58d3c50bd9222</t>
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
@@ -21747,7 +21747,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>496173c5-f40f-43c0-ae34-76c5279256f8</t>
+          <t>f1f89d36-3dfc-47f0-adc4-b7f4944a11b4</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -21757,7 +21757,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
@@ -21770,7 +21770,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://www.notion.so/98-496173c5f40f43c0ae3476c5279256f8</t>
+          <t>https://www.notion.so/98-f1f89d363dfc47f0adc4b7f4944a11b4</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
@@ -21833,7 +21833,7 @@
         </is>
       </c>
       <c r="W99" t="n">
-        <v>9500000</v>
+        <v>7500000</v>
       </c>
       <c r="X99" t="inlineStr">
         <is>
@@ -21851,7 +21851,7 @@
         </is>
       </c>
       <c r="AA99" t="n">
-        <v>9500000</v>
+        <v>7500000</v>
       </c>
       <c r="AB99" t="inlineStr">
         <is>
@@ -21864,7 +21864,7 @@
         </is>
       </c>
       <c r="AD99" t="n">
-        <v>9500000</v>
+        <v>7500000</v>
       </c>
       <c r="AE99" t="inlineStr">
         <is>
@@ -21938,7 +21938,7 @@
         </is>
       </c>
       <c r="AV99" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="AW99" t="inlineStr">
         <is>
@@ -21964,7 +21964,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>d5e63696-3120-4f11-93e9-85e1408862a0</t>
+          <t>4163582a-d393-4443-9921-faee57f55b8a</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -21974,7 +21974,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
@@ -21987,7 +21987,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://www.notion.so/99-d5e6369631204f1193e985e1408862a0</t>
+          <t>https://www.notion.so/99-4163582ad39344439921faee57f55b8a</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
@@ -22050,7 +22050,7 @@
         </is>
       </c>
       <c r="W100" t="n">
-        <v>28000000</v>
+        <v>10000000</v>
       </c>
       <c r="X100" t="inlineStr">
         <is>
@@ -22068,7 +22068,7 @@
         </is>
       </c>
       <c r="AA100" t="n">
-        <v>28000000</v>
+        <v>10000000</v>
       </c>
       <c r="AB100" t="inlineStr">
         <is>
@@ -22081,7 +22081,7 @@
         </is>
       </c>
       <c r="AD100" t="n">
-        <v>28000000</v>
+        <v>10000000</v>
       </c>
       <c r="AE100" t="inlineStr">
         <is>
@@ -22155,7 +22155,7 @@
         </is>
       </c>
       <c r="AV100" t="n">
-        <v>0</v>
+        <v>18000000</v>
       </c>
       <c r="AW100" t="inlineStr">
         <is>
@@ -22181,7 +22181,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>7cad04af-538e-4d13-a195-a2aef6732c19</t>
+          <t>bedc4c40-3289-481a-a093-d1cd90e5032d</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -22191,7 +22191,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
@@ -22204,7 +22204,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://www.notion.so/100-7cad04af538e4d13a195a2aef6732c19</t>
+          <t>https://www.notion.so/100-bedc4c403289481aa093d1cd90e5032d</t>
         </is>
       </c>
       <c r="J101" t="inlineStr"/>
@@ -22398,7 +22398,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>05c57336-b708-4d9b-8e6a-89b7b95be6b7</t>
+          <t>06a4d1f1-edf0-493f-ab60-8a5a0c455d04</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -22408,7 +22408,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
@@ -22421,7 +22421,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://www.notion.so/101-05c57336b7084d9b8e6a89b7b95be6b7</t>
+          <t>https://www.notion.so/101-06a4d1f1edf0493fab608a5a0c455d04</t>
         </is>
       </c>
       <c r="J102" t="inlineStr"/>
@@ -22484,7 +22484,7 @@
         </is>
       </c>
       <c r="W102" t="n">
-        <v>30000000</v>
+        <v>20000000</v>
       </c>
       <c r="X102" t="inlineStr">
         <is>
@@ -22502,7 +22502,7 @@
         </is>
       </c>
       <c r="AA102" t="n">
-        <v>30000000</v>
+        <v>20000000</v>
       </c>
       <c r="AB102" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         </is>
       </c>
       <c r="AD102" t="n">
-        <v>30000000</v>
+        <v>20000000</v>
       </c>
       <c r="AE102" t="inlineStr">
         <is>
@@ -22589,7 +22589,7 @@
         </is>
       </c>
       <c r="AV102" t="n">
-        <v>18000000</v>
+        <v>28000000</v>
       </c>
       <c r="AW102" t="inlineStr">
         <is>
@@ -22615,7 +22615,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>843c0f3c-8123-433b-88b3-97d27986224f</t>
+          <t>b2b51a2a-2ddf-4a49-b11a-7ffe4deed937</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -22625,7 +22625,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
@@ -22638,7 +22638,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://www.notion.so/102-843c0f3c8123433b88b397d27986224f</t>
+          <t>https://www.notion.so/102-b2b51a2a2ddf4a49b11a7ffe4deed937</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
@@ -22701,7 +22701,7 @@
         </is>
       </c>
       <c r="W103" t="n">
-        <v>69500000</v>
+        <v>44500000</v>
       </c>
       <c r="X103" t="inlineStr">
         <is>
@@ -22719,7 +22719,7 @@
         </is>
       </c>
       <c r="AA103" t="n">
-        <v>69500000</v>
+        <v>44500000</v>
       </c>
       <c r="AB103" t="inlineStr">
         <is>
@@ -22732,7 +22732,7 @@
         </is>
       </c>
       <c r="AD103" t="n">
-        <v>64000000</v>
+        <v>39000000</v>
       </c>
       <c r="AE103" t="inlineStr">
         <is>
@@ -22806,7 +22806,7 @@
         </is>
       </c>
       <c r="AV103" t="n">
-        <v>0</v>
+        <v>25000000</v>
       </c>
       <c r="AW103" t="inlineStr">
         <is>
@@ -22832,7 +22832,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>862f1a06-2204-4195-90ec-cac4dc9face7</t>
+          <t>496173c5-f40f-43c0-ae34-76c5279256f8</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -22842,7 +22842,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
@@ -22855,7 +22855,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://www.notion.so/103-862f1a062204419590eccac4dc9face7</t>
+          <t>https://www.notion.so/103-496173c5f40f43c0ae3476c5279256f8</t>
         </is>
       </c>
       <c r="J104" t="inlineStr"/>
@@ -22918,7 +22918,7 @@
         </is>
       </c>
       <c r="W104" t="n">
-        <v>4095000</v>
+        <v>3295000</v>
       </c>
       <c r="X104" t="inlineStr">
         <is>
@@ -22936,7 +22936,7 @@
         </is>
       </c>
       <c r="AA104" t="n">
-        <v>5500000</v>
+        <v>4700000</v>
       </c>
       <c r="AB104" t="inlineStr">
         <is>
@@ -22949,7 +22949,7 @@
         </is>
       </c>
       <c r="AD104" t="n">
-        <v>5500000</v>
+        <v>4700000</v>
       </c>
       <c r="AE104" t="inlineStr">
         <is>
@@ -23023,7 +23023,7 @@
         </is>
       </c>
       <c r="AV104" t="n">
-        <v>500000</v>
+        <v>1300000</v>
       </c>
       <c r="AW104" t="inlineStr">
         <is>
@@ -23049,7 +23049,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>5a20033c-7b76-441e-a043-11a24bafe817</t>
+          <t>d5e63696-3120-4f11-93e9-85e1408862a0</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -23059,7 +23059,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
@@ -23072,7 +23072,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://www.notion.so/104-5a20033c7b76441ea04311a24bafe817</t>
+          <t>https://www.notion.so/104-d5e6369631204f1193e985e1408862a0</t>
         </is>
       </c>
       <c r="J105" t="inlineStr"/>
@@ -23266,7 +23266,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>4bb0f678-a35b-4cdf-aa60-42d5723edb56</t>
+          <t>7cad04af-538e-4d13-a195-a2aef6732c19</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -23276,7 +23276,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
@@ -23289,7 +23289,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://www.notion.so/105-4bb0f678a35b4cdfaa6042d5723edb56</t>
+          <t>https://www.notion.so/105-7cad04af538e4d13a195a2aef6732c19</t>
         </is>
       </c>
       <c r="J106" t="inlineStr"/>
@@ -23352,7 +23352,7 @@
         </is>
       </c>
       <c r="W106" t="n">
-        <v>89475000</v>
+        <v>86475000</v>
       </c>
       <c r="X106" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         </is>
       </c>
       <c r="AA106" t="n">
-        <v>95000000</v>
+        <v>92000000</v>
       </c>
       <c r="AB106" t="inlineStr">
         <is>
@@ -23383,7 +23383,7 @@
         </is>
       </c>
       <c r="AD106" t="n">
-        <v>73000000</v>
+        <v>70000000</v>
       </c>
       <c r="AE106" t="inlineStr">
         <is>
@@ -23457,7 +23457,7 @@
         </is>
       </c>
       <c r="AV106" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="AW106" t="inlineStr">
         <is>
@@ -23483,7 +23483,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>8e1ea00e-bd3f-4195-917e-a4f95caeca3e</t>
+          <t>05c57336-b708-4d9b-8e6a-89b7b95be6b7</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -23493,7 +23493,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E107" t="inlineStr"/>
@@ -23506,7 +23506,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://www.notion.so/106-8e1ea00ebd3f4195917ea4f95caeca3e</t>
+          <t>https://www.notion.so/106-05c57336b7084d9b8e6a89b7b95be6b7</t>
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
@@ -23700,7 +23700,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>26a7f7ee-02ed-4fb1-83c8-ec84258e73c1</t>
+          <t>843c0f3c-8123-433b-88b3-97d27986224f</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -23710,7 +23710,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
@@ -23723,7 +23723,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://www.notion.so/107-26a7f7ee02ed4fb183c8ec84258e73c1</t>
+          <t>https://www.notion.so/107-843c0f3c8123433b88b397d27986224f</t>
         </is>
       </c>
       <c r="J108" t="inlineStr"/>
@@ -23917,7 +23917,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>49be2302-44bd-4319-9dfd-ba3efecee188</t>
+          <t>862f1a06-2204-4195-90ec-cac4dc9face7</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -23927,7 +23927,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
@@ -23940,7 +23940,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://www.notion.so/108-49be230244bd43199dfdba3efecee188</t>
+          <t>https://www.notion.so/108-862f1a062204419590eccac4dc9face7</t>
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
@@ -24003,7 +24003,7 @@
         </is>
       </c>
       <c r="W109" t="n">
-        <v>50562000</v>
+        <v>45562000</v>
       </c>
       <c r="X109" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="AA109" t="n">
-        <v>52500000</v>
+        <v>47500000</v>
       </c>
       <c r="AB109" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         </is>
       </c>
       <c r="AD109" t="n">
-        <v>46000000</v>
+        <v>41000000</v>
       </c>
       <c r="AE109" t="inlineStr">
         <is>
@@ -24108,7 +24108,7 @@
         </is>
       </c>
       <c r="AV109" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="AW109" t="inlineStr">
         <is>
@@ -24134,17 +24134,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>e3d0e7f2-3a0f-4b21-854d-275f27645ccb</t>
+          <t>5a20033c-7b76-441e-a043-11a24bafe817</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>2024-06-24T17:11:00.000Z</t>
+          <t>2024-06-24T17:12:00.000Z</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
@@ -24157,7 +24157,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://www.notion.so/109-e3d0e7f23a0f4b21854d275f27645ccb</t>
+          <t>https://www.notion.so/109-5a20033c7b76441ea04311a24bafe817</t>
         </is>
       </c>
       <c r="J110" t="inlineStr"/>
@@ -24220,7 +24220,7 @@
         </is>
       </c>
       <c r="W110" t="n">
-        <v>50180000</v>
+        <v>38180000</v>
       </c>
       <c r="X110" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         </is>
       </c>
       <c r="AA110" t="n">
-        <v>69000000</v>
+        <v>57000000</v>
       </c>
       <c r="AB110" t="inlineStr">
         <is>
@@ -24251,7 +24251,7 @@
         </is>
       </c>
       <c r="AD110" t="n">
-        <v>48500000</v>
+        <v>36500000</v>
       </c>
       <c r="AE110" t="inlineStr">
         <is>
@@ -24325,7 +24325,7 @@
         </is>
       </c>
       <c r="AV110" t="n">
-        <v>0</v>
+        <v>12000000</v>
       </c>
       <c r="AW110" t="inlineStr">
         <is>
@@ -24351,17 +24351,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>b39a1a5d-b3d2-4e1f-a621-4c7ef48fbd42</t>
+          <t>4bb0f678-a35b-4cdf-aa60-42d5723edb56</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>2024-06-24T17:11:00.000Z</t>
+          <t>2024-06-24T17:12:00.000Z</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
@@ -24374,7 +24374,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://www.notion.so/110-b39a1a5db3d24e1fa6214c7ef48fbd42</t>
+          <t>https://www.notion.so/110-4bb0f678a35b4cdfaa6042d5723edb56</t>
         </is>
       </c>
       <c r="J111" t="inlineStr"/>
@@ -24437,7 +24437,7 @@
         </is>
       </c>
       <c r="W111" t="n">
-        <v>25750000</v>
+        <v>22750000</v>
       </c>
       <c r="X111" t="inlineStr">
         <is>
@@ -24455,7 +24455,7 @@
         </is>
       </c>
       <c r="AA111" t="n">
-        <v>26000000</v>
+        <v>23000000</v>
       </c>
       <c r="AB111" t="inlineStr">
         <is>
@@ -24468,7 +24468,7 @@
         </is>
       </c>
       <c r="AD111" t="n">
-        <v>26000000</v>
+        <v>23000000</v>
       </c>
       <c r="AE111" t="inlineStr">
         <is>
@@ -24542,7 +24542,7 @@
         </is>
       </c>
       <c r="AV111" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="AW111" t="inlineStr">
         <is>
@@ -24568,17 +24568,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>493985da-d6ad-4058-8b64-843eee3d8f2d</t>
+          <t>8e1ea00e-bd3f-4195-917e-a4f95caeca3e</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>2024-06-24T17:11:00.000Z</t>
+          <t>2024-06-24T17:12:00.000Z</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E112" t="inlineStr"/>
@@ -24591,7 +24591,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://www.notion.so/111-493985dad6ad40588b64843eee3d8f2d</t>
+          <t>https://www.notion.so/111-8e1ea00ebd3f4195917ea4f95caeca3e</t>
         </is>
       </c>
       <c r="J112" t="inlineStr"/>
@@ -24654,7 +24654,7 @@
         </is>
       </c>
       <c r="W112" t="n">
-        <v>98790000</v>
+        <v>89790000</v>
       </c>
       <c r="X112" t="inlineStr">
         <is>
@@ -24672,7 +24672,7 @@
         </is>
       </c>
       <c r="AA112" t="n">
-        <v>102900000</v>
+        <v>93900000</v>
       </c>
       <c r="AB112" t="inlineStr">
         <is>
@@ -24685,7 +24685,7 @@
         </is>
       </c>
       <c r="AD112" t="n">
-        <v>102900000</v>
+        <v>93900000</v>
       </c>
       <c r="AE112" t="inlineStr">
         <is>
@@ -24759,7 +24759,7 @@
         </is>
       </c>
       <c r="AV112" t="n">
-        <v>0</v>
+        <v>9000000</v>
       </c>
       <c r="AW112" t="inlineStr">
         <is>
@@ -24785,17 +24785,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>42672126-8639-4fad-a41f-20bcff3ce428</t>
+          <t>26a7f7ee-02ed-4fb1-83c8-ec84258e73c1</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>2024-06-24T17:11:00.000Z</t>
+          <t>2024-06-24T17:12:00.000Z</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
@@ -24808,7 +24808,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://www.notion.so/112-4267212686394fada41f20bcff3ce428</t>
+          <t>https://www.notion.so/112-26a7f7ee02ed4fb183c8ec84258e73c1</t>
         </is>
       </c>
       <c r="J113" t="inlineStr"/>
@@ -25002,17 +25002,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>dac6c1eb-aeef-4eac-bee0-c1fde79f21b1</t>
+          <t>49be2302-44bd-4319-9dfd-ba3efecee188</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>2024-06-24T17:11:00.000Z</t>
+          <t>2024-06-24T17:12:00.000Z</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
@@ -25025,7 +25025,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://www.notion.so/113-dac6c1ebaeef4eacbee0c1fde79f21b1</t>
+          <t>https://www.notion.so/113-49be230244bd43199dfdba3efecee188</t>
         </is>
       </c>
       <c r="J114" t="inlineStr"/>
@@ -25219,7 +25219,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>0c9dfa61-f5cc-4fb7-916d-03c4f3257b2c</t>
+          <t>e3d0e7f2-3a0f-4b21-854d-275f27645ccb</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -25229,7 +25229,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E115" t="inlineStr"/>
@@ -25242,7 +25242,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://www.notion.so/114-0c9dfa61f5cc4fb7916d03c4f3257b2c</t>
+          <t>https://www.notion.so/114-e3d0e7f23a0f4b21854d275f27645ccb</t>
         </is>
       </c>
       <c r="J115" t="inlineStr"/>
@@ -25436,7 +25436,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>42241cf4-f792-4387-80e7-82225df7215f</t>
+          <t>b39a1a5d-b3d2-4e1f-a621-4c7ef48fbd42</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -25446,7 +25446,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E116" t="inlineStr"/>
@@ -25459,7 +25459,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://www.notion.so/115-42241cf4f792438780e782225df7215f</t>
+          <t>https://www.notion.so/115-b39a1a5db3d24e1fa6214c7ef48fbd42</t>
         </is>
       </c>
       <c r="J116" t="inlineStr"/>
@@ -25653,7 +25653,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>d6f8d60a-4b22-4c98-be85-095455a283da</t>
+          <t>493985da-d6ad-4058-8b64-843eee3d8f2d</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -25663,7 +25663,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2024-07-23T19:36:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E117" t="inlineStr"/>
@@ -25676,7 +25676,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://www.notion.so/116-d6f8d60a4b224c98be85095455a283da</t>
+          <t>https://www.notion.so/116-493985dad6ad40588b64843eee3d8f2d</t>
         </is>
       </c>
       <c r="J117" t="inlineStr"/>
@@ -25870,7 +25870,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>1c4ce883-3380-4268-89d2-0cb7795e63ba</t>
+          <t>42672126-8639-4fad-a41f-20bcff3ce428</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -25880,7 +25880,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2024-07-23T19:37:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E118" t="inlineStr"/>
@@ -25893,7 +25893,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://www.notion.so/117-1c4ce8833380426889d20cb7795e63ba</t>
+          <t>https://www.notion.so/117-4267212686394fada41f20bcff3ce428</t>
         </is>
       </c>
       <c r="J118" t="inlineStr"/>
@@ -26087,7 +26087,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>80a7d602-7106-441a-b801-b93fdaa517b1</t>
+          <t>dac6c1eb-aeef-4eac-bee0-c1fde79f21b1</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -26097,7 +26097,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2024-07-23T19:37:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E119" t="inlineStr"/>
@@ -26110,7 +26110,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://www.notion.so/118-80a7d6027106441ab801b93fdaa517b1</t>
+          <t>https://www.notion.so/118-dac6c1ebaeef4eacbee0c1fde79f21b1</t>
         </is>
       </c>
       <c r="J119" t="inlineStr"/>
@@ -26304,7 +26304,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>a0b354b1-c1ed-42e6-9cdf-3648200eb567</t>
+          <t>0c9dfa61-f5cc-4fb7-916d-03c4f3257b2c</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -26314,7 +26314,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2024-07-23T19:37:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E120" t="inlineStr"/>
@@ -26327,7 +26327,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://www.notion.so/119-a0b354b1c1ed42e69cdf3648200eb567</t>
+          <t>https://www.notion.so/119-0c9dfa61f5cc4fb7916d03c4f3257b2c</t>
         </is>
       </c>
       <c r="J120" t="inlineStr"/>
@@ -26390,7 +26390,7 @@
         </is>
       </c>
       <c r="W120" t="n">
-        <v>68600000</v>
+        <v>67600000</v>
       </c>
       <c r="X120" t="inlineStr">
         <is>
@@ -26408,7 +26408,7 @@
         </is>
       </c>
       <c r="AA120" t="n">
-        <v>89500000</v>
+        <v>88500000</v>
       </c>
       <c r="AB120" t="inlineStr">
         <is>
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="AD120" t="n">
-        <v>88500000</v>
+        <v>87500000</v>
       </c>
       <c r="AE120" t="inlineStr">
         <is>
@@ -26495,7 +26495,7 @@
         </is>
       </c>
       <c r="AV120" t="n">
-        <v>2000000</v>
+        <v>3000000</v>
       </c>
       <c r="AW120" t="inlineStr">
         <is>
@@ -26521,7 +26521,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>ffd66113-90bc-4b60-a2a0-35b23d0683f6</t>
+          <t>42241cf4-f792-4387-80e7-82225df7215f</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -26531,7 +26531,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2024-07-23T19:37:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E121" t="inlineStr"/>
@@ -26544,7 +26544,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://www.notion.so/120-ffd6611390bc4b60a2a035b23d0683f6</t>
+          <t>https://www.notion.so/120-42241cf4f792438780e782225df7215f</t>
         </is>
       </c>
       <c r="J121" t="inlineStr"/>
@@ -26607,7 +26607,7 @@
         </is>
       </c>
       <c r="W121" t="n">
-        <v>5980000</v>
+        <v>4780000</v>
       </c>
       <c r="X121" t="inlineStr">
         <is>
@@ -26625,7 +26625,7 @@
         </is>
       </c>
       <c r="AA121" t="n">
-        <v>10500000</v>
+        <v>9300000</v>
       </c>
       <c r="AB121" t="inlineStr">
         <is>
@@ -26638,7 +26638,7 @@
         </is>
       </c>
       <c r="AD121" t="n">
-        <v>10500000</v>
+        <v>9300000</v>
       </c>
       <c r="AE121" t="inlineStr">
         <is>
@@ -26712,7 +26712,7 @@
         </is>
       </c>
       <c r="AV121" t="n">
-        <v>0</v>
+        <v>1200000</v>
       </c>
       <c r="AW121" t="inlineStr">
         <is>
@@ -26738,7 +26738,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>1a76f663-e849-4e18-90f6-4e2a6dde02fc</t>
+          <t>d6f8d60a-4b22-4c98-be85-095455a283da</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -26748,7 +26748,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2024-07-23T19:37:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E122" t="inlineStr"/>
@@ -26761,7 +26761,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://www.notion.so/121-1a76f663e8494e1890f64e2a6dde02fc</t>
+          <t>https://www.notion.so/121-d6f8d60a4b224c98be85095455a283da</t>
         </is>
       </c>
       <c r="J122" t="inlineStr"/>
@@ -26824,7 +26824,7 @@
         </is>
       </c>
       <c r="W122" t="n">
-        <v>7134000</v>
+        <v>2134000</v>
       </c>
       <c r="X122" t="inlineStr">
         <is>
@@ -26842,7 +26842,7 @@
         </is>
       </c>
       <c r="AA122" t="n">
-        <v>26000000</v>
+        <v>21000000</v>
       </c>
       <c r="AB122" t="inlineStr">
         <is>
@@ -26855,7 +26855,7 @@
         </is>
       </c>
       <c r="AD122" t="n">
-        <v>26000000</v>
+        <v>21000000</v>
       </c>
       <c r="AE122" t="inlineStr">
         <is>
@@ -26929,7 +26929,7 @@
         </is>
       </c>
       <c r="AV122" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="AW122" t="inlineStr">
         <is>
@@ -26955,7 +26955,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>83559fb8-d2fe-48c8-8cdc-cae71e18a107</t>
+          <t>1c4ce883-3380-4268-89d2-0cb7795e63ba</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -26965,7 +26965,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2024-07-23T19:37:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E123" t="inlineStr"/>
@@ -26978,7 +26978,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://www.notion.so/122-83559fb8d2fe48c88cdccae71e18a107</t>
+          <t>https://www.notion.so/122-1c4ce8833380426889d20cb7795e63ba</t>
         </is>
       </c>
       <c r="J123" t="inlineStr"/>
@@ -27172,7 +27172,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>33d50674-8474-41c5-8386-a8ad4c4ab5de</t>
+          <t>80a7d602-7106-441a-b801-b93fdaa517b1</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -27182,7 +27182,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2024-07-23T19:37:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E124" t="inlineStr"/>
@@ -27195,7 +27195,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://www.notion.so/123-33d50674847441c58386a8ad4c4ab5de</t>
+          <t>https://www.notion.so/123-80a7d6027106441ab801b93fdaa517b1</t>
         </is>
       </c>
       <c r="J124" t="inlineStr"/>
@@ -27389,7 +27389,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>37128e53-b773-4ea2-96bf-972affc6cc26</t>
+          <t>a0b354b1-c1ed-42e6-9cdf-3648200eb567</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -27399,7 +27399,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2024-07-23T19:37:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E125" t="inlineStr"/>
@@ -27412,7 +27412,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://www.notion.so/124-37128e53b7734ea296bf972affc6cc26</t>
+          <t>https://www.notion.so/124-a0b354b1c1ed42e69cdf3648200eb567</t>
         </is>
       </c>
       <c r="J125" t="inlineStr"/>
@@ -27606,7 +27606,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>7253fb5a-bf33-4ccd-8fd0-91f4b9969ef6</t>
+          <t>ffd66113-90bc-4b60-a2a0-35b23d0683f6</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -27616,7 +27616,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2024-07-23T19:37:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E126" t="inlineStr"/>
@@ -27629,7 +27629,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://www.notion.so/125-7253fb5abf334ccd8fd091f4b9969ef6</t>
+          <t>https://www.notion.so/125-ffd6611390bc4b60a2a035b23d0683f6</t>
         </is>
       </c>
       <c r="J126" t="inlineStr"/>
@@ -27823,7 +27823,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>e929925c-ebe4-4ca8-b41c-3de560b2837c</t>
+          <t>1a76f663-e849-4e18-90f6-4e2a6dde02fc</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -27833,7 +27833,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2024-07-23T19:37:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E127" t="inlineStr"/>
@@ -27846,7 +27846,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://www.notion.so/126-e929925cebe44ca8b41c3de560b2837c</t>
+          <t>https://www.notion.so/126-1a76f663e8494e1890f64e2a6dde02fc</t>
         </is>
       </c>
       <c r="J127" t="inlineStr"/>
@@ -28040,7 +28040,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>9dab23a5-43ce-4360-ac1c-03a9c3e6ed32</t>
+          <t>83559fb8-d2fe-48c8-8cdc-cae71e18a107</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -28050,7 +28050,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2024-07-23T19:37:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E128" t="inlineStr"/>
@@ -28063,7 +28063,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://www.notion.so/127-9dab23a543ce4360ac1c03a9c3e6ed32</t>
+          <t>https://www.notion.so/127-83559fb8d2fe48c88cdccae71e18a107</t>
         </is>
       </c>
       <c r="J128" t="inlineStr"/>
@@ -28257,7 +28257,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>6c863667-9f48-402b-8e54-f7a90e88236f</t>
+          <t>33d50674-8474-41c5-8386-a8ad4c4ab5de</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -28267,7 +28267,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>2024-07-23T19:37:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E129" t="inlineStr"/>
@@ -28280,7 +28280,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://www.notion.so/128-6c8636679f48402b8e54f7a90e88236f</t>
+          <t>https://www.notion.so/128-33d50674847441c58386a8ad4c4ab5de</t>
         </is>
       </c>
       <c r="J129" t="inlineStr"/>
@@ -28474,7 +28474,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>4d129591-2cfa-4125-9a26-bd0482773b60</t>
+          <t>37128e53-b773-4ea2-96bf-972affc6cc26</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -28484,7 +28484,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2024-07-23T19:37:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E130" t="inlineStr"/>
@@ -28497,7 +28497,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://www.notion.so/129-4d1295912cfa41259a26bd0482773b60</t>
+          <t>https://www.notion.so/129-37128e53b7734ea296bf972affc6cc26</t>
         </is>
       </c>
       <c r="J130" t="inlineStr"/>
@@ -28691,7 +28691,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>24fc52cb-6fb1-48a9-9009-773c42ccef04</t>
+          <t>7253fb5a-bf33-4ccd-8fd0-91f4b9969ef6</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -28701,7 +28701,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2024-07-23T19:37:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E131" t="inlineStr"/>
@@ -28714,7 +28714,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://www.notion.so/130-24fc52cb6fb148a99009773c42ccef04</t>
+          <t>https://www.notion.so/130-7253fb5abf334ccd8fd091f4b9969ef6</t>
         </is>
       </c>
       <c r="J131" t="inlineStr"/>
@@ -28908,7 +28908,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2e8f6b21-caba-4b14-8110-c0ed9b2f93c8</t>
+          <t>e929925c-ebe4-4ca8-b41c-3de560b2837c</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -28918,7 +28918,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>2024-07-23T19:37:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E132" t="inlineStr"/>
@@ -28931,7 +28931,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://www.notion.so/131-2e8f6b21caba4b148110c0ed9b2f93c8</t>
+          <t>https://www.notion.so/131-e929925cebe44ca8b41c3de560b2837c</t>
         </is>
       </c>
       <c r="J132" t="inlineStr"/>
@@ -29125,7 +29125,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>efabbe44-5db8-4011-bb36-47628eaa630f</t>
+          <t>9dab23a5-43ce-4360-ac1c-03a9c3e6ed32</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -29135,7 +29135,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>2024-07-23T19:37:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E133" t="inlineStr"/>
@@ -29148,7 +29148,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://www.notion.so/132-efabbe445db84011bb3647628eaa630f</t>
+          <t>https://www.notion.so/132-9dab23a543ce4360ac1c03a9c3e6ed32</t>
         </is>
       </c>
       <c r="J133" t="inlineStr"/>
@@ -29211,7 +29211,7 @@
         </is>
       </c>
       <c r="W133" t="n">
-        <v>30004000</v>
+        <v>26004000</v>
       </c>
       <c r="X133" t="inlineStr">
         <is>
@@ -29229,7 +29229,7 @@
         </is>
       </c>
       <c r="AA133" t="n">
-        <v>92350000</v>
+        <v>88350000</v>
       </c>
       <c r="AB133" t="inlineStr">
         <is>
@@ -29242,7 +29242,7 @@
         </is>
       </c>
       <c r="AD133" t="n">
-        <v>75350000</v>
+        <v>71350000</v>
       </c>
       <c r="AE133" t="inlineStr">
         <is>
@@ -29316,7 +29316,7 @@
         </is>
       </c>
       <c r="AV133" t="n">
-        <v>39600000</v>
+        <v>43600000</v>
       </c>
       <c r="AW133" t="inlineStr">
         <is>
@@ -29342,7 +29342,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>06f63b1c-cbf4-4c5f-a3d1-29d7f16153a0</t>
+          <t>6c863667-9f48-402b-8e54-f7a90e88236f</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -29352,7 +29352,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>2024-07-23T19:37:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E134" t="inlineStr"/>
@@ -29365,7 +29365,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://www.notion.so/133-06f63b1ccbf44c5fa3d129d7f16153a0</t>
+          <t>https://www.notion.so/133-6c8636679f48402b8e54f7a90e88236f</t>
         </is>
       </c>
       <c r="J134" t="inlineStr"/>
@@ -29559,7 +29559,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>8b90e615-6115-4700-ba83-4432306a036c</t>
+          <t>4d129591-2cfa-4125-9a26-bd0482773b60</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -29569,7 +29569,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2024-07-23T19:37:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E135" t="inlineStr"/>
@@ -29582,7 +29582,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://www.notion.so/134-8b90e61561154700ba834432306a036c</t>
+          <t>https://www.notion.so/134-4d1295912cfa41259a26bd0482773b60</t>
         </is>
       </c>
       <c r="J135" t="inlineStr"/>
@@ -29645,7 +29645,7 @@
         </is>
       </c>
       <c r="W135" t="n">
-        <v>26550000</v>
+        <v>23550000</v>
       </c>
       <c r="X135" t="inlineStr">
         <is>
@@ -29663,7 +29663,7 @@
         </is>
       </c>
       <c r="AA135" t="n">
-        <v>45030000</v>
+        <v>42030000</v>
       </c>
       <c r="AB135" t="inlineStr">
         <is>
@@ -29676,7 +29676,7 @@
         </is>
       </c>
       <c r="AD135" t="n">
-        <v>44230000</v>
+        <v>41230000</v>
       </c>
       <c r="AE135" t="inlineStr">
         <is>
@@ -29750,7 +29750,7 @@
         </is>
       </c>
       <c r="AV135" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="AW135" t="inlineStr">
         <is>
@@ -29776,7 +29776,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>a19e566b-7859-4527-be9a-072bd8c05390</t>
+          <t>24fc52cb-6fb1-48a9-9009-773c42ccef04</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -29786,7 +29786,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>2024-07-23T19:37:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E136" t="inlineStr"/>
@@ -29799,7 +29799,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://www.notion.so/135-a19e566b78594527be9a072bd8c05390</t>
+          <t>https://www.notion.so/135-24fc52cb6fb148a99009773c42ccef04</t>
         </is>
       </c>
       <c r="J136" t="inlineStr"/>
@@ -29993,7 +29993,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>001d4caf-f4de-4678-b0f0-761c92275cf7</t>
+          <t>2e8f6b21-caba-4b14-8110-c0ed9b2f93c8</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -30003,7 +30003,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>2024-07-23T19:37:00.000Z</t>
+          <t>2024-07-24T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E137" t="inlineStr"/>
@@ -30016,7 +30016,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://www.notion.so/136-001d4caff4de4678b0f0761c92275cf7</t>
+          <t>https://www.notion.so/136-2e8f6b21caba4b148110c0ed9b2f93c8</t>
         </is>
       </c>
       <c r="J137" t="inlineStr"/>
@@ -30210,7 +30210,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>d5f56ef4-f178-40b4-b16f-5c14ffe31e13</t>
+          <t>efabbe44-5db8-4011-bb36-47628eaa630f</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -30220,7 +30220,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>2024-07-23T19:37:00.000Z</t>
+          <t>2024-07-24T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E138" t="inlineStr"/>
@@ -30233,7 +30233,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://www.notion.so/137-d5f56ef4f17840b4b16f5c14ffe31e13</t>
+          <t>https://www.notion.so/137-efabbe445db84011bb3647628eaa630f</t>
         </is>
       </c>
       <c r="J138" t="inlineStr"/>
@@ -30427,7 +30427,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>e65b3e23-103d-478e-801a-bf7777c8f2eb</t>
+          <t>06f63b1c-cbf4-4c5f-a3d1-29d7f16153a0</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -30437,7 +30437,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>2024-07-23T19:37:00.000Z</t>
+          <t>2024-07-24T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E139" t="inlineStr"/>
@@ -30450,7 +30450,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://www.notion.so/138-e65b3e23103d478e801abf7777c8f2eb</t>
+          <t>https://www.notion.so/138-06f63b1ccbf44c5fa3d129d7f16153a0</t>
         </is>
       </c>
       <c r="J139" t="inlineStr"/>
@@ -30513,7 +30513,7 @@
         </is>
       </c>
       <c r="W139" t="n">
-        <v>5315000</v>
+        <v>4815000</v>
       </c>
       <c r="X139" t="inlineStr">
         <is>
@@ -30531,7 +30531,7 @@
         </is>
       </c>
       <c r="AA139" t="n">
-        <v>6500000</v>
+        <v>6000000</v>
       </c>
       <c r="AB139" t="inlineStr">
         <is>
@@ -30544,7 +30544,7 @@
         </is>
       </c>
       <c r="AD139" t="n">
-        <v>6000000</v>
+        <v>5500000</v>
       </c>
       <c r="AE139" t="inlineStr">
         <is>
@@ -30618,7 +30618,7 @@
         </is>
       </c>
       <c r="AV139" t="n">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="AW139" t="inlineStr">
         <is>
@@ -30644,7 +30644,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>caaed0bc-bfa5-4d55-8b43-ab30c77c1785</t>
+          <t>8b90e615-6115-4700-ba83-4432306a036c</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -30654,7 +30654,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>2024-07-23T19:37:00.000Z</t>
+          <t>2024-07-24T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E140" t="inlineStr"/>
@@ -30667,7 +30667,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://www.notion.so/139-caaed0bcbfa54d558b43ab30c77c1785</t>
+          <t>https://www.notion.so/139-8b90e61561154700ba834432306a036c</t>
         </is>
       </c>
       <c r="J140" t="inlineStr"/>
@@ -30730,7 +30730,7 @@
         </is>
       </c>
       <c r="W140" t="n">
-        <v>16715000</v>
+        <v>13715000</v>
       </c>
       <c r="X140" t="inlineStr">
         <is>
@@ -30748,7 +30748,7 @@
         </is>
       </c>
       <c r="AA140" t="n">
-        <v>17000000</v>
+        <v>14000000</v>
       </c>
       <c r="AB140" t="inlineStr">
         <is>
@@ -30761,7 +30761,7 @@
         </is>
       </c>
       <c r="AD140" t="n">
-        <v>7000000</v>
+        <v>4000000</v>
       </c>
       <c r="AE140" t="inlineStr">
         <is>
@@ -30835,7 +30835,7 @@
         </is>
       </c>
       <c r="AV140" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="AW140" t="inlineStr">
         <is>
@@ -30861,7 +30861,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>822dc4c7-461a-4244-b0c0-4864e890788b</t>
+          <t>a19e566b-7859-4527-be9a-072bd8c05390</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -30871,7 +30871,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>2024-07-23T19:37:00.000Z</t>
+          <t>2024-07-24T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E141" t="inlineStr"/>
@@ -30884,7 +30884,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://www.notion.so/140-822dc4c7461a4244b0c04864e890788b</t>
+          <t>https://www.notion.so/140-a19e566b78594527be9a072bd8c05390</t>
         </is>
       </c>
       <c r="J141" t="inlineStr"/>
@@ -30947,7 +30947,7 @@
         </is>
       </c>
       <c r="W141" t="n">
-        <v>-6517000</v>
+        <v>-7017000</v>
       </c>
       <c r="X141" t="inlineStr">
         <is>
@@ -30965,7 +30965,7 @@
         </is>
       </c>
       <c r="AA141" t="n">
-        <v>6788000</v>
+        <v>6288000</v>
       </c>
       <c r="AB141" t="inlineStr">
         <is>
@@ -30978,7 +30978,7 @@
         </is>
       </c>
       <c r="AD141" t="n">
-        <v>6788000</v>
+        <v>6288000</v>
       </c>
       <c r="AE141" t="inlineStr">
         <is>
@@ -31052,7 +31052,7 @@
         </is>
       </c>
       <c r="AV141" t="n">
-        <v>500000</v>
+        <v>1000000</v>
       </c>
       <c r="AW141" t="inlineStr">
         <is>
@@ -31078,7 +31078,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>9dc50016-75f8-4ebb-becc-f7c19023df88</t>
+          <t>001d4caf-f4de-4678-b0f0-761c92275cf7</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -31088,7 +31088,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>2024-07-23T19:37:00.000Z</t>
+          <t>2024-07-24T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E142" t="inlineStr"/>
@@ -31101,7 +31101,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://www.notion.so/141-9dc5001675f84ebbbeccf7c19023df88</t>
+          <t>https://www.notion.so/141-001d4caff4de4678b0f0761c92275cf7</t>
         </is>
       </c>
       <c r="J142" t="inlineStr"/>
@@ -31295,7 +31295,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>46b797ad-bc4f-4f9e-8fc1-10fb45a779b0</t>
+          <t>d5f56ef4-f178-40b4-b16f-5c14ffe31e13</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -31305,7 +31305,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>2024-07-23T19:37:00.000Z</t>
+          <t>2024-07-24T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E143" t="inlineStr"/>
@@ -31318,7 +31318,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://www.notion.so/142-46b797adbc4f4f9e8fc110fb45a779b0</t>
+          <t>https://www.notion.so/142-d5f56ef4f17840b4b16f5c14ffe31e13</t>
         </is>
       </c>
       <c r="J143" t="inlineStr"/>
@@ -31381,7 +31381,7 @@
         </is>
       </c>
       <c r="W143" t="n">
-        <v>6154000</v>
+        <v>7154000</v>
       </c>
       <c r="X143" t="inlineStr">
         <is>
@@ -31399,7 +31399,7 @@
         </is>
       </c>
       <c r="AA143" t="n">
-        <v>14000000</v>
+        <v>15000000</v>
       </c>
       <c r="AB143" t="inlineStr">
         <is>
@@ -31412,7 +31412,7 @@
         </is>
       </c>
       <c r="AD143" t="n">
-        <v>14000000</v>
+        <v>15000000</v>
       </c>
       <c r="AE143" t="inlineStr">
         <is>
@@ -31425,7 +31425,7 @@
         </is>
       </c>
       <c r="AG143" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH143" t="inlineStr">
         <is>
@@ -31468,7 +31468,7 @@
         </is>
       </c>
       <c r="AR143" t="n">
-        <v>22500000</v>
+        <v>23500000</v>
       </c>
       <c r="AS143" t="inlineStr">
         <is>
@@ -31512,7 +31512,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>60f8a8d9-03b1-4152-83a7-76617f1fae5f</t>
+          <t>e65b3e23-103d-478e-801a-bf7777c8f2eb</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -31522,7 +31522,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>2024-07-23T19:37:00.000Z</t>
+          <t>2024-07-24T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E144" t="inlineStr"/>
@@ -31535,7 +31535,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://www.notion.so/143-60f8a8d903b1415283a776617f1fae5f</t>
+          <t>https://www.notion.so/143-e65b3e23103d478e801abf7777c8f2eb</t>
         </is>
       </c>
       <c r="J144" t="inlineStr"/>
@@ -31729,7 +31729,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>bd97bf52-0298-4456-840b-fc17fd7cc090</t>
+          <t>caaed0bc-bfa5-4d55-8b43-ab30c77c1785</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -31739,7 +31739,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>2024-07-23T19:37:00.000Z</t>
+          <t>2024-07-24T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E145" t="inlineStr"/>
@@ -31752,7 +31752,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://www.notion.so/144-bd97bf5202984456840bfc17fd7cc090</t>
+          <t>https://www.notion.so/144-caaed0bcbfa54d558b43ab30c77c1785</t>
         </is>
       </c>
       <c r="J145" t="inlineStr"/>
@@ -31946,7 +31946,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>e9eab0ae-4c99-4f20-83fc-0413a44eef94</t>
+          <t>822dc4c7-461a-4244-b0c0-4864e890788b</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -31956,7 +31956,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>2024-07-23T19:37:00.000Z</t>
+          <t>2024-07-24T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E146" t="inlineStr"/>
@@ -31969,7 +31969,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://www.notion.so/145-e9eab0ae4c994f2083fc0413a44eef94</t>
+          <t>https://www.notion.so/145-822dc4c7461a4244b0c04864e890788b</t>
         </is>
       </c>
       <c r="J146" t="inlineStr"/>
@@ -32163,7 +32163,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>1fd0bde0-9f87-405a-9030-94f43b6bc03f</t>
+          <t>9dc50016-75f8-4ebb-becc-f7c19023df88</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -32173,7 +32173,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2024-07-23T19:37:00.000Z</t>
+          <t>2024-07-24T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E147" t="inlineStr"/>
@@ -32186,7 +32186,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://www.notion.so/146-1fd0bde09f87405a903094f43b6bc03f</t>
+          <t>https://www.notion.so/146-9dc5001675f84ebbbeccf7c19023df88</t>
         </is>
       </c>
       <c r="J147" t="inlineStr"/>
@@ -32249,7 +32249,7 @@
         </is>
       </c>
       <c r="W147" t="n">
-        <v>38310000</v>
+        <v>33310000</v>
       </c>
       <c r="X147" t="inlineStr">
         <is>
@@ -32267,7 +32267,7 @@
         </is>
       </c>
       <c r="AA147" t="n">
-        <v>46000000</v>
+        <v>41000000</v>
       </c>
       <c r="AB147" t="inlineStr">
         <is>
@@ -32280,7 +32280,7 @@
         </is>
       </c>
       <c r="AD147" t="n">
-        <v>43000000</v>
+        <v>38000000</v>
       </c>
       <c r="AE147" t="inlineStr">
         <is>
@@ -32354,7 +32354,7 @@
         </is>
       </c>
       <c r="AV147" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="AW147" t="inlineStr">
         <is>
@@ -32380,7 +32380,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>451bd443-b279-4077-906c-83cd770bc69c</t>
+          <t>46b797ad-bc4f-4f9e-8fc1-10fb45a779b0</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -32390,7 +32390,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>2024-07-23T19:37:00.000Z</t>
+          <t>2024-07-24T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E148" t="inlineStr"/>
@@ -32403,7 +32403,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://www.notion.so/147-451bd443b2794077906c83cd770bc69c</t>
+          <t>https://www.notion.so/147-46b797adbc4f4f9e8fc110fb45a779b0</t>
         </is>
       </c>
       <c r="J148" t="inlineStr"/>
@@ -32466,7 +32466,7 @@
         </is>
       </c>
       <c r="W148" t="n">
-        <v>67121000</v>
+        <v>56621000</v>
       </c>
       <c r="X148" t="inlineStr">
         <is>
@@ -32484,7 +32484,7 @@
         </is>
       </c>
       <c r="AA148" t="n">
-        <v>68800000</v>
+        <v>58300000</v>
       </c>
       <c r="AB148" t="inlineStr">
         <is>
@@ -32497,7 +32497,7 @@
         </is>
       </c>
       <c r="AD148" t="n">
-        <v>59600000</v>
+        <v>49100000</v>
       </c>
       <c r="AE148" t="inlineStr">
         <is>
@@ -32571,7 +32571,7 @@
         </is>
       </c>
       <c r="AV148" t="n">
-        <v>3000000</v>
+        <v>13500000</v>
       </c>
       <c r="AW148" t="inlineStr">
         <is>
@@ -32597,7 +32597,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>e834216e-5a34-4f07-8fbd-ca240ac98d06</t>
+          <t>60f8a8d9-03b1-4152-83a7-76617f1fae5f</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -32607,7 +32607,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>2024-07-23T19:37:00.000Z</t>
+          <t>2024-07-24T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E149" t="inlineStr"/>
@@ -32620,7 +32620,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://www.notion.so/148-e834216e5a344f078fbdca240ac98d06</t>
+          <t>https://www.notion.so/148-60f8a8d903b1415283a776617f1fae5f</t>
         </is>
       </c>
       <c r="J149" t="inlineStr"/>
@@ -32814,7 +32814,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>f06b3d94-a638-4428-86ad-50c833ddcd28</t>
+          <t>bd97bf52-0298-4456-840b-fc17fd7cc090</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -32824,7 +32824,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>2024-07-23T19:37:00.000Z</t>
+          <t>2024-07-24T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E150" t="inlineStr"/>
@@ -32837,7 +32837,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://www.notion.so/149-f06b3d94a638442886ad50c833ddcd28</t>
+          <t>https://www.notion.so/149-bd97bf5202984456840bfc17fd7cc090</t>
         </is>
       </c>
       <c r="J150" t="inlineStr"/>
@@ -33031,7 +33031,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>9e02ba25-75bb-4b31-9f89-87b23344eb27</t>
+          <t>e9eab0ae-4c99-4f20-83fc-0413a44eef94</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -33041,7 +33041,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>2024-07-23T19:37:00.000Z</t>
+          <t>2024-07-24T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E151" t="inlineStr"/>
@@ -33054,7 +33054,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://www.notion.so/150-9e02ba2575bb4b319f8987b23344eb27</t>
+          <t>https://www.notion.so/150-e9eab0ae4c994f2083fc0413a44eef94</t>
         </is>
       </c>
       <c r="J151" t="inlineStr"/>
@@ -33248,7 +33248,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>fcbc1dcc-f4d6-46b4-a297-d9ca776b5fc2</t>
+          <t>1fd0bde0-9f87-405a-9030-94f43b6bc03f</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -33258,7 +33258,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>2024-07-23T19:37:00.000Z</t>
+          <t>2024-07-24T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E152" t="inlineStr"/>
@@ -33271,7 +33271,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://www.notion.so/151-fcbc1dccf4d646b4a297d9ca776b5fc2</t>
+          <t>https://www.notion.so/151-1fd0bde09f87405a903094f43b6bc03f</t>
         </is>
       </c>
       <c r="J152" t="inlineStr"/>
@@ -33465,7 +33465,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>afb8c925-ce16-4258-898b-9c4e9a557d0d</t>
+          <t>451bd443-b279-4077-906c-83cd770bc69c</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -33475,7 +33475,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>2024-07-23T19:37:00.000Z</t>
+          <t>2024-07-24T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E153" t="inlineStr"/>
@@ -33488,7 +33488,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://www.notion.so/152-afb8c925ce164258898b9c4e9a557d0d</t>
+          <t>https://www.notion.so/152-451bd443b2794077906c83cd770bc69c</t>
         </is>
       </c>
       <c r="J153" t="inlineStr"/>
@@ -33682,7 +33682,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>1a038cb7-de3f-47e8-adff-6dc4867ab197</t>
+          <t>afb8c925-ce16-4258-898b-9c4e9a557d0d</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -33692,7 +33692,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>2024-07-23T19:37:00.000Z</t>
+          <t>2024-07-24T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E154" t="inlineStr"/>
@@ -33705,7 +33705,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://www.notion.so/153-1a038cb7de3f47e8adff6dc4867ab197</t>
+          <t>https://www.notion.so/153-afb8c925ce164258898b9c4e9a557d0d</t>
         </is>
       </c>
       <c r="J154" t="inlineStr"/>
@@ -33750,7 +33750,7 @@
         </is>
       </c>
       <c r="S154" t="n">
-        <v>6220000</v>
+        <v>7648000</v>
       </c>
       <c r="T154" t="inlineStr">
         <is>
@@ -33768,7 +33768,7 @@
         </is>
       </c>
       <c r="W154" t="n">
-        <v>7830000</v>
+        <v>6402000</v>
       </c>
       <c r="X154" t="inlineStr">
         <is>
@@ -33899,7 +33899,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>fb6d55d5-a1f5-4598-8acc-2b0c2bf0f78a</t>
+          <t>1a038cb7-de3f-47e8-adff-6dc4867ab197</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -33909,7 +33909,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>2024-07-23T19:37:00.000Z</t>
+          <t>2024-07-24T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E155" t="inlineStr"/>
@@ -33922,7 +33922,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://www.notion.so/154-fb6d55d5a1f545988acc2b0c2bf0f78a</t>
+          <t>https://www.notion.so/154-1a038cb7de3f47e8adff6dc4867ab197</t>
         </is>
       </c>
       <c r="J155" t="inlineStr"/>
@@ -33967,7 +33967,7 @@
         </is>
       </c>
       <c r="S155" t="n">
-        <v>35328000</v>
+        <v>33900000</v>
       </c>
       <c r="T155" t="inlineStr">
         <is>
@@ -33985,7 +33985,7 @@
         </is>
       </c>
       <c r="W155" t="n">
-        <v>19472000</v>
+        <v>20900000</v>
       </c>
       <c r="X155" t="inlineStr">
         <is>
@@ -34105,6 +34105,223 @@
       <c r="AY155" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '154', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '154', 'href': None}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>fb6d55d5-a1f5-4598-8acc-2b0c2bf0f78a</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>2024-06-24T17:11:00.000Z</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2024-07-24T15:58:00.000Z</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="b">
+        <v>0</v>
+      </c>
+      <c r="H156" t="b">
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>https://www.notion.so/155-fb6d55d5a1f545988acc2b0c2bf0f78a</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
+        </is>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
+        </is>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>database_id</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>88e410cc-a410-4367-aad5-55987f9467f7</t>
+        </is>
+      </c>
+      <c r="Q156" t="inlineStr">
+        <is>
+          <t>IynB</t>
+        </is>
+      </c>
+      <c r="R156" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="S156" t="n">
+        <v>675000</v>
+      </c>
+      <c r="T156" t="inlineStr">
+        <is>
+          <t>PSic</t>
+        </is>
+      </c>
+      <c r="U156" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="V156" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="W156" t="n">
+        <v>14125000</v>
+      </c>
+      <c r="X156" t="inlineStr">
+        <is>
+          <t>Uc%3A%5E</t>
+        </is>
+      </c>
+      <c r="Y156" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Z156" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AA156" t="n">
+        <v>14800000</v>
+      </c>
+      <c r="AB156" t="inlineStr">
+        <is>
+          <t>V%3CuY</t>
+        </is>
+      </c>
+      <c r="AC156" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AD156" t="n">
+        <v>14800000</v>
+      </c>
+      <c r="AE156" t="inlineStr">
+        <is>
+          <t>%5Be%3DQ</t>
+        </is>
+      </c>
+      <c r="AF156" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AG156" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH156" t="inlineStr">
+        <is>
+          <t>ccio</t>
+        </is>
+      </c>
+      <c r="AI156" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AJ156" t="inlineStr">
+        <is>
+          <t>2024-07-24</t>
+        </is>
+      </c>
+      <c r="AK156" t="inlineStr"/>
+      <c r="AL156" t="inlineStr"/>
+      <c r="AM156" t="inlineStr">
+        <is>
+          <t>iRq%5E</t>
+        </is>
+      </c>
+      <c r="AN156" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AO156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP156" t="inlineStr">
+        <is>
+          <t>oNis</t>
+        </is>
+      </c>
+      <c r="AQ156" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR156" t="n">
+        <v>24800000</v>
+      </c>
+      <c r="AS156" t="inlineStr">
+        <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT156" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU156" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV156" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="AW156" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AX156" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AY156" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': '155', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '155', 'href': None}]</t>
         </is>
       </c>
     </row>
